--- a/Vent_Photon/dataReduction/CoolTerm Capture 2021-01-21 14-12-19.xlsx
+++ b/Vent_Photon/dataReduction/CoolTerm Capture 2021-01-21 14-12-19.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10512" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10512" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Duct ST HS" sheetId="2" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Room Response" sheetId="4" r:id="rId3"/>
     <sheet name="Potential" sheetId="5" r:id="rId4"/>
     <sheet name="CoolTerm Capture 2021-01-21 14-" sheetId="1" r:id="rId5"/>
+    <sheet name="HalfStep Data" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="41">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -110,6 +111,42 @@
   </si>
   <si>
     <t>T_thermostat = 68 F</t>
+  </si>
+  <si>
+    <t>time_s</t>
+  </si>
+  <si>
+    <t>y1_dot</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>dT_fit_1</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>Tau_1=</t>
+  </si>
+  <si>
+    <t>dT_1</t>
+  </si>
+  <si>
+    <t>Tau_2=</t>
+  </si>
+  <si>
+    <t>dT_2=</t>
+  </si>
+  <si>
+    <t>dT_fit_2</t>
+  </si>
+  <si>
+    <t>y2_dot</t>
+  </si>
+  <si>
+    <t>y2</t>
   </si>
 </sst>
 </file>
@@ -601,10 +638,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -678,7 +718,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -832,11 +871,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="526273856"/>
-        <c:axId val="526274248"/>
+        <c:axId val="526260112"/>
+        <c:axId val="526258152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="526273856"/>
+        <c:axId val="526260112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -893,12 +932,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526274248"/>
+        <c:crossAx val="526258152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="526274248"/>
+        <c:axId val="526258152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -955,7 +994,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526273856"/>
+        <c:crossAx val="526260112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1015,7 +1054,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1183,11 +1221,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="530110152"/>
-        <c:axId val="530110544"/>
+        <c:axId val="526256976"/>
+        <c:axId val="526252272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="530110152"/>
+        <c:axId val="526256976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1244,12 +1282,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530110544"/>
+        <c:crossAx val="526252272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="530110544"/>
+        <c:axId val="526252272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530110152"/>
+        <c:crossAx val="526256976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2810,11 +2848,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="525120472"/>
-        <c:axId val="525123216"/>
+        <c:axId val="526250704"/>
+        <c:axId val="526260504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="525120472"/>
+        <c:axId val="526250704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -2873,12 +2911,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525123216"/>
+        <c:crossAx val="526260504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="525123216"/>
+        <c:axId val="526260504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -2937,7 +2975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525120472"/>
+        <c:crossAx val="526250704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -4442,11 +4480,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="537405024"/>
-        <c:axId val="537405808"/>
+        <c:axId val="526248744"/>
+        <c:axId val="526253056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="537405024"/>
+        <c:axId val="526248744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="14"/>
@@ -4504,12 +4542,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537405808"/>
+        <c:crossAx val="526253056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="537405808"/>
+        <c:axId val="526253056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4566,7 +4604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537405024"/>
+        <c:crossAx val="526248744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4793,11 +4831,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="529149608"/>
-        <c:axId val="529153528"/>
+        <c:axId val="526259720"/>
+        <c:axId val="526251488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="529149608"/>
+        <c:axId val="526259720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14.3"/>
@@ -4855,12 +4893,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529153528"/>
+        <c:crossAx val="526251488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="529153528"/>
+        <c:axId val="526251488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -4918,7 +4956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529149608"/>
+        <c:crossAx val="526259720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7811,11 +7849,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="529158232"/>
-        <c:axId val="529155096"/>
+        <c:axId val="526254232"/>
+        <c:axId val="526255408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="529158232"/>
+        <c:axId val="526254232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18"/>
@@ -7874,12 +7912,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529155096"/>
+        <c:crossAx val="526255408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="529155096"/>
+        <c:axId val="526255408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60"/>
@@ -7937,7 +7975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529158232"/>
+        <c:crossAx val="526254232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10873,11 +10911,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="529146080"/>
-        <c:axId val="529150392"/>
+        <c:axId val="526263248"/>
+        <c:axId val="526264032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="529146080"/>
+        <c:axId val="526263248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18"/>
@@ -10936,12 +10974,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529150392"/>
+        <c:crossAx val="526264032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="529150392"/>
+        <c:axId val="526264032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="68"/>
@@ -11000,7 +11038,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529146080"/>
+        <c:crossAx val="526263248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11079,6 +11117,1461 @@
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HalfStep Data'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HalfStep Data'!$B$2:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3270</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6060</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8460</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HalfStep Data'!$F$2:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.7999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.7000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.1000000000000085</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.4000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.0999999999999943</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HalfStep Data'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dT_fit_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HalfStep Data'!$B$2:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3270</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6060</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8460</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HalfStep Data'!$G$2:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.682231969774307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.309163818525366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.078254003710743</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.134980614046608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.310993925856287</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.7446767091966</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.355452957791648</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.087943646400227</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.904087364704147</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.777724913456055</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.6908773554715</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.631187959979535</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.590164078400392</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.561968804416658</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.529271990519781</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.513827109253693</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.506531463932539</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.503085245102167</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.500688411233742</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.500003612450616</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.500000179853327</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.500000000010484</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.500000000000011</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="530204216"/>
+        <c:axId val="530200688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="530204216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530200688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="530200688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530204216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HalfStep Data'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>diff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HalfStep Data'!$B$2:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3270</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6060</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8460</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HalfStep Data'!$H$2:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9822319697743112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89083618147462929</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8217459962892484</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1650193859533893</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3890060741437082</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7553232908034069</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0445470422083574</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4120563535997732</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3959126352958506</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3222750865439394</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2091226445284917</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7688120400204568</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2098359215996055</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3380311955833477</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8707280094802243</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6861728907463096</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.59346853606746919</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39691475489783912</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.9311588766251901E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.9000036124506217</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.3000001798533241</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.7000000000104869</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.8000000000000078</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6.3999999999999915</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-7.4000000000000057</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HalfStep Data'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dT_fit_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HalfStep Data'!$B$2:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3270</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6060</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8460</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HalfStep Data'!$I$2:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6296486804249888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.26844136751071</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.572561270539393</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9106196463758671</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5918553115381107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2809612961697274</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9777432813906559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6820117460710731</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3935818483745273</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1122733102257683</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.837910304631083</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5703213457807017</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3093391818645834</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0548006905345897</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5644222743266001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0979598956895016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6542471557072993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.23217454141039617</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.55122044312885699</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.7509337633326716</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.7024280470971469</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.756470711660473</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.5694625667667559</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7.6472338121598646</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.9355554296387147</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7.9921083480932591</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7.9993838066716219</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-7.9999887140255126</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="531750304"/>
+        <c:axId val="531754224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="531750304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="531754224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="531754224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="531750304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -11323,6 +12816,86 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14974,6 +16547,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
@@ -15246,6 +17851,73 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16218,8 +18890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16566,7 +19238,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M3:M66" si="3">G6-H6</f>
+        <f t="shared" ref="M6:M66" si="3">G6-H6</f>
         <v>16.800000000000004</v>
       </c>
       <c r="N6">
@@ -16602,7 +19274,7 @@
         <v>29.999999999998295</v>
       </c>
       <c r="AG6">
-        <f t="shared" ref="AG6:AG15" si="6">1-(AD6-$AD$11)/($AD$5-$AD$11)</f>
+        <f t="shared" ref="AG6:AG11" si="6">1-(AD6-$AD$11)/($AD$5-$AD$11)</f>
         <v>0.66820276497695774</v>
       </c>
     </row>
@@ -28663,6 +31335,1537 @@
       </c>
       <c r="P225" t="s">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1">
+        <v>40</v>
+      </c>
+      <c r="R1">
+        <f>12/60+19/3600+14</f>
+        <v>14.205277777777777</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>43.8</v>
+      </c>
+      <c r="F2">
+        <f>D2-E2</f>
+        <v>39.5</v>
+      </c>
+      <c r="G2">
+        <f>$F$2-$Q$2*(1-EXP(-B2/$Q$1))</f>
+        <v>39.5</v>
+      </c>
+      <c r="H2">
+        <f>F2-G2</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>7+$H$2-$Q$4*(1-EXP(-B2/$Q$3))</f>
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <f>G2</f>
+        <v>39.5</v>
+      </c>
+      <c r="M2">
+        <f>K2</f>
+        <v>39.5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="3">
+        <f>A3*60</f>
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>53.6</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F30" si="0">D3-E3</f>
+        <v>29.699999999999996</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G30" si="1">$F$2-$Q$2*(1-EXP(-B3/$Q$1))</f>
+        <v>31.682231969774307</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H30" si="2">F3-G3</f>
+        <v>-1.9822319697743112</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I30" si="3">7+$H$2-$Q$4*(1-EXP(-B3/$Q$3))</f>
+        <v>6.6296486804249888</v>
+      </c>
+      <c r="J3">
+        <f>(F3-K2)/$Q$1</f>
+        <v>-0.24500000000000011</v>
+      </c>
+      <c r="K3">
+        <f>K2+(B3-B2)*J3</f>
+        <v>35.824999999999996</v>
+      </c>
+      <c r="L3">
+        <f>(K3-M2)/$Q$3</f>
+        <v>-6.1250000000000072E-3</v>
+      </c>
+      <c r="M3">
+        <f>M2+(B3-B2)*L3</f>
+        <v>39.408124999999998</v>
+      </c>
+      <c r="P3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B4" s="3">
+        <f t="shared" ref="B4:B30" si="4">A4*60</f>
+        <v>30</v>
+      </c>
+      <c r="C4" s="3">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>56.1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>27.199999999999996</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>26.309163818525366</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.89083618147462929</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>6.26844136751071</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J30" si="5">(F4-K3)/$Q$1</f>
+        <v>-0.21562500000000001</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K30" si="6">K3+(B4-B3)*J4</f>
+        <v>32.590624999999996</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L30" si="7">(K4-M3)/$Q$3</f>
+        <v>-1.1362500000000005E-2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M30" si="8">M3+(B4-B3)*L4</f>
+        <v>39.2376875</v>
+      </c>
+      <c r="P4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="C5" s="3">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3">
+        <v>85.1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>60.2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>24.899999999999991</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>20.078254003710743</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>4.8217459962892484</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>5.572561270539393</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>-0.19226562500000011</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>26.822656249999994</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="7"/>
+        <v>-2.0691718750000008E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="8"/>
+        <v>38.616935937500003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="C6" s="3">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3">
+        <v>85.1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>61.8</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>23.299999999999997</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>17.134980614046608</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>6.1650193859533893</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>4.9106196463758671</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>-8.8066406249999923E-2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>24.180664062499996</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="7"/>
+        <v>-2.4060453125000009E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="8"/>
+        <v>37.895122343750003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="C7" s="3">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3">
+        <v>85.1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>62.4</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>22.699999999999996</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>16.310993925856287</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>6.3890060741437082</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>4.5918553115381107</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>-3.7016601562500015E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>23.625415039062496</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="7"/>
+        <v>-2.3782845507812511E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="8"/>
+        <v>37.538379661132815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="C8" s="3">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3">
+        <v>84.9</v>
+      </c>
+      <c r="E8" s="3">
+        <v>62.4</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>22.500000000000007</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>15.7446767091966</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>6.7553232908034069</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>4.2809612961697274</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>-2.8135375976562217E-2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>23.203384399414063</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="7"/>
+        <v>-2.3891658769531254E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="8"/>
+        <v>37.180004779589844</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="C9" s="3">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3">
+        <v>84.9</v>
+      </c>
+      <c r="E9" s="3">
+        <v>64.5</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>20.400000000000006</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>15.355452957791648</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>5.0445470422083574</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>3.9777432813906559</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>-7.0084609985351418E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>22.152115249633791</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>-2.5046482549926755E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="8"/>
+        <v>36.80430754134094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="C10" s="3">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3">
+        <v>83.6</v>
+      </c>
+      <c r="E10" s="3">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>15.087943646400227</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>3.4120563535997732</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>3.6820117460710731</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>-9.1302881240844777E-2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="6"/>
+        <v>20.782572031021118</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="7"/>
+        <v>-2.6702892517199702E-2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="8"/>
+        <v>36.403764153582941</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="4"/>
+        <v>165</v>
+      </c>
+      <c r="C11" s="3">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3">
+        <v>83.6</v>
+      </c>
+      <c r="E11" s="3">
+        <v>66.3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>17.299999999999997</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>14.904087364704147</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>2.3959126352958506</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>3.3935818483745273</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>-8.7064300775528028E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="6"/>
+        <v>19.476607519388196</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="7"/>
+        <v>-2.8211927723657909E-2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="8"/>
+        <v>35.980585237728071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="C12" s="3">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3">
+        <v>83.6</v>
+      </c>
+      <c r="E12" s="3">
+        <v>66.5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>17.099999999999994</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>14.777724913456055</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>2.3222750865439394</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>3.1122733102257683</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>-5.9415187984705041E-2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>18.585379699617619</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="7"/>
+        <v>-2.899200923018409E-2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="8"/>
+        <v>35.54570509927531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="4"/>
+        <v>195</v>
+      </c>
+      <c r="C13" s="3">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3">
+        <v>83.6</v>
+      </c>
+      <c r="E13" s="3">
+        <v>66.7</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>16.899999999999991</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>14.6908773554715</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>2.2091226445284917</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>2.837910304631083</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>-4.2134492490440677E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>17.953362312261007</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="7"/>
+        <v>-2.9320571311690503E-2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="8"/>
+        <v>35.105896529599953</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="C14" s="3">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3">
+        <v>83.6</v>
+      </c>
+      <c r="E14" s="3">
+        <v>67.2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>16.399999999999991</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>14.631187959979535</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>1.7688120400204568</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>2.5703213457807017</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>-3.8834057806525379E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="6"/>
+        <v>17.370851445163126</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="7"/>
+        <v>-2.9558408474061378E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="8"/>
+        <v>34.662520402489029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="C15" s="3">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3">
+        <v>83.6</v>
+      </c>
+      <c r="E15" s="3">
+        <v>67.8</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>15.799999999999997</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>14.590164078400392</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>1.2098359215996055</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>2.3093391818645834</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>-3.9271286129078223E-2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="6"/>
+        <v>16.781782153226953</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="7"/>
+        <v>-2.9801230415436794E-2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="8"/>
+        <v>34.215501946257476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="C16" s="3">
+        <v>22</v>
+      </c>
+      <c r="D16" s="3">
+        <v>84.9</v>
+      </c>
+      <c r="E16" s="3">
+        <v>68</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>16.900000000000006</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>14.561968804416658</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>2.3380311955833477</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>2.0548006905345897</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>2.9554461693263256E-3</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>16.826113845766848</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="7"/>
+        <v>-2.8982313500817713E-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="8"/>
+        <v>33.78076724374521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B17" s="3">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="C17" s="3">
+        <v>22</v>
+      </c>
+      <c r="D17" s="3">
+        <v>84.9</v>
+      </c>
+      <c r="E17" s="3">
+        <v>68.5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>16.400000000000006</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>14.529271990519781</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>1.8707280094802243</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>1.5644222743266001</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>-1.0652846144171058E-2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="6"/>
+        <v>16.506528461441718</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="7"/>
+        <v>-2.879039797050582E-2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="8"/>
+        <v>32.917055304630033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="C18" s="3">
+        <v>22</v>
+      </c>
+      <c r="D18" s="3">
+        <v>85.2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>69</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>14.513827109253693</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>1.6861728907463096</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>1.0979598956895016</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>-7.6632115360428799E-3</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="6"/>
+        <v>16.276632115360432</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="7"/>
+        <v>-2.7734038648782669E-2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="8"/>
+        <v>32.085034145166553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="shared" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="C19" s="3">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3">
+        <v>85.2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>15.100000000000009</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>14.506531463932539</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.59346853606746919</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0.6542471557072993</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>-2.9415802884010578E-2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="6"/>
+        <v>15.394158028840113</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="7"/>
+        <v>-2.7818126860544065E-2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="8"/>
+        <v>31.250490339350232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
+      <c r="C20" s="3">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3">
+        <v>85.2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>70.3</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>14.900000000000006</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>14.503085245102167</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0.39691475489783912</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0.23217454141039617</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>-1.2353950721002694E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="6"/>
+        <v>15.023539507210032</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="7"/>
+        <v>-2.7044918053567003E-2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="8"/>
+        <v>30.439142797743223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="C21" s="3">
+        <v>22</v>
+      </c>
+      <c r="D21" s="3">
+        <v>85.6</v>
+      </c>
+      <c r="E21" s="3">
+        <v>71</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>14.599999999999994</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>14.500688411233742</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>9.9311588766251901E-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>-0.55122044312885699</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>-1.0588487680250936E-2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="6"/>
+        <v>14.388230246394976</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="7"/>
+        <v>-2.6751520918913745E-2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="8"/>
+        <v>28.8340515426084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" si="4"/>
+        <v>630</v>
+      </c>
+      <c r="C22" s="3">
+        <v>22</v>
+      </c>
+      <c r="D22" s="3">
+        <v>83.6</v>
+      </c>
+      <c r="E22" s="3">
+        <v>73</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>10.599999999999994</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>14.500003612450616</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>-3.9000036124506217</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>-2.7509337633326716</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>-9.4705756159874532E-2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="6"/>
+        <v>-5.499978547178678</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="7"/>
+        <v>-5.7223383482978465E-2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="8"/>
+        <v>16.817141011182922</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="B23" s="3">
+        <f t="shared" si="4"/>
+        <v>750</v>
+      </c>
+      <c r="C23" s="3">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3">
+        <v>84.4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>73.2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>14.500000179853327</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>-3.3000001798533241</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>-3.7024280470971469</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>0.417499463679467</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="6"/>
+        <v>44.599957094357364</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="7"/>
+        <v>4.6304693471957405E-2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="8"/>
+        <v>22.373704227817811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3">
+        <f t="shared" si="4"/>
+        <v>1140</v>
+      </c>
+      <c r="C24" s="3">
+        <v>22</v>
+      </c>
+      <c r="D24" s="3">
+        <v>83.8</v>
+      </c>
+      <c r="E24" s="3">
+        <v>75</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>8.7999999999999972</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>14.500000000010484</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>-5.7000000000104869</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>-5.756470711660473</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>-0.89499892735893416</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="6"/>
+        <v>-304.44962457562696</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="7"/>
+        <v>-0.54470554800574134</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="8"/>
+        <v>-190.06145949442129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="B25" s="3">
+        <f t="shared" si="4"/>
+        <v>1410</v>
+      </c>
+      <c r="C25" s="3">
+        <v>22</v>
+      </c>
+      <c r="D25" s="3">
+        <v>83.4</v>
+      </c>
+      <c r="E25" s="3">
+        <v>75.7</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>7.7000000000000028</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>14.500000000000011</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>-6.8000000000000078</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>-6.5694625667667559</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>7.8037406143906738</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="6"/>
+        <v>1802.5603413098549</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="7"/>
+        <v>3.3210363346737939</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="8"/>
+        <v>706.61835086750307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" si="4"/>
+        <v>2250</v>
+      </c>
+      <c r="C26" s="3">
+        <v>22</v>
+      </c>
+      <c r="D26" s="3">
+        <v>84.9</v>
+      </c>
+      <c r="E26" s="3">
+        <v>76.8</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>8.1000000000000085</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>-6.3999999999999915</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>-7.6472338121598646</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>-44.861508532746377</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="6"/>
+        <v>-35881.106826197101</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="7"/>
+        <v>-60.979541961774338</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="8"/>
+        <v>-50516.196897022943</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>54.5</v>
+      </c>
+      <c r="B27" s="3">
+        <f t="shared" si="4"/>
+        <v>3270</v>
+      </c>
+      <c r="C27" s="3">
+        <v>22</v>
+      </c>
+      <c r="D27" s="3">
+        <v>84.9</v>
+      </c>
+      <c r="E27" s="3">
+        <v>77.5</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>7.4000000000000057</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>-7.0999999999999943</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>-7.9355554296387147</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>897.21267065492759</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="6"/>
+        <v>879275.81724182901</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="7"/>
+        <v>1549.6533568980865</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="8"/>
+        <v>1530130.2271390252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>75.5</v>
+      </c>
+      <c r="B28" s="3">
+        <f t="shared" si="4"/>
+        <v>4530</v>
+      </c>
+      <c r="C28" s="3">
+        <v>22</v>
+      </c>
+      <c r="D28" s="3">
+        <v>86.9</v>
+      </c>
+      <c r="E28" s="3">
+        <v>79.7</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>7.2000000000000028</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>-7.2999999999999972</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>-7.9921083480932591</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>-21981.715431045726</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="6"/>
+        <v>-26817685.625875786</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="7"/>
+        <v>-47246.359755024685</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="8"/>
+        <v>-58000283.064192079</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>101</v>
+      </c>
+      <c r="B29" s="3">
+        <f t="shared" si="4"/>
+        <v>6060</v>
+      </c>
+      <c r="C29" s="3">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3">
+        <v>89</v>
+      </c>
+      <c r="E29" s="3">
+        <v>82.5</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>-7.9993838066716219</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>670442.30314689467</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="6"/>
+        <v>998959038.18887305</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="7"/>
+        <v>1761598.8687551084</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="8"/>
+        <v>2637245986.1311235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>141</v>
+      </c>
+      <c r="B30" s="3">
+        <f t="shared" si="4"/>
+        <v>8460</v>
+      </c>
+      <c r="C30" s="3">
+        <v>22</v>
+      </c>
+      <c r="D30" s="3">
+        <v>87.8</v>
+      </c>
+      <c r="E30" s="3">
+        <v>80.7</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>7.0999999999999943</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>-7.4000000000000057</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>-7.9999887140255126</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>-24973975.777221825</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="6"/>
+        <v>-58938582827.143509</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="7"/>
+        <v>-102626381.35545772</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="8"/>
+        <v>-243666069266.96741</v>
       </c>
     </row>
   </sheetData>

--- a/Vent_Photon/dataReduction/CoolTerm Capture 2021-01-21 14-12-19.xlsx
+++ b/Vent_Photon/dataReduction/CoolTerm Capture 2021-01-21 14-12-19.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10512" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10512" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Duct ST HS" sheetId="2" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>Ta_norm</t>
   </si>
   <si>
-    <t>t_norm</t>
-  </si>
-  <si>
     <t>dT</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>y2</t>
+  </si>
+  <si>
+    <t>t_norm, s</t>
   </si>
 </sst>
 </file>
@@ -718,6 +718,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -871,11 +872,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="526260112"/>
-        <c:axId val="526258152"/>
+        <c:axId val="501037160"/>
+        <c:axId val="501044216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="526260112"/>
+        <c:axId val="501037160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,12 +933,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526258152"/>
+        <c:crossAx val="501044216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="526258152"/>
+        <c:axId val="501044216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,7 +995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526260112"/>
+        <c:crossAx val="501037160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1054,6 +1055,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1221,11 +1223,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="526256976"/>
-        <c:axId val="526252272"/>
+        <c:axId val="501035592"/>
+        <c:axId val="501042256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="526256976"/>
+        <c:axId val="501035592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1282,12 +1284,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526252272"/>
+        <c:crossAx val="501042256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="526252272"/>
+        <c:axId val="501042256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1344,7 +1346,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526256976"/>
+        <c:crossAx val="501035592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2848,11 +2850,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="526250704"/>
-        <c:axId val="526260504"/>
+        <c:axId val="501038728"/>
+        <c:axId val="501043040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="526250704"/>
+        <c:axId val="501038728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -2874,6 +2876,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time, s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2911,12 +2969,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526260504"/>
+        <c:crossAx val="501043040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="526260504"/>
+        <c:axId val="501043040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -2975,7 +3033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526250704"/>
+        <c:crossAx val="501038728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -3061,7 +3119,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4480,11 +4537,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="526248744"/>
-        <c:axId val="526253056"/>
+        <c:axId val="501045000"/>
+        <c:axId val="501045392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="526248744"/>
+        <c:axId val="501045000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="14"/>
@@ -4542,12 +4599,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526253056"/>
+        <c:crossAx val="501045392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="526253056"/>
+        <c:axId val="501045392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4604,7 +4661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526248744"/>
+        <c:crossAx val="501045000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4831,11 +4888,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="526259720"/>
-        <c:axId val="526251488"/>
+        <c:axId val="501037552"/>
+        <c:axId val="501037944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="526259720"/>
+        <c:axId val="501037552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14.3"/>
@@ -4893,12 +4950,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526251488"/>
+        <c:crossAx val="501037944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="526251488"/>
+        <c:axId val="501037944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -4956,7 +5013,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526259720"/>
+        <c:crossAx val="501037552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7849,11 +7906,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="526254232"/>
-        <c:axId val="526255408"/>
+        <c:axId val="501053232"/>
+        <c:axId val="501052840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="526254232"/>
+        <c:axId val="501053232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18"/>
@@ -7912,12 +7969,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526255408"/>
+        <c:crossAx val="501052840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="526255408"/>
+        <c:axId val="501052840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60"/>
@@ -7975,7 +8032,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526254232"/>
+        <c:crossAx val="501053232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10911,11 +10968,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="526263248"/>
-        <c:axId val="526264032"/>
+        <c:axId val="501054408"/>
+        <c:axId val="501051664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="526263248"/>
+        <c:axId val="501054408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18"/>
@@ -10974,12 +11031,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526264032"/>
+        <c:crossAx val="501051664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="526264032"/>
+        <c:axId val="501051664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="68"/>
@@ -11038,7 +11095,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526263248"/>
+        <c:crossAx val="501054408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11643,11 +11700,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="530204216"/>
-        <c:axId val="530200688"/>
+        <c:axId val="501047744"/>
+        <c:axId val="501052056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="530204216"/>
+        <c:axId val="501047744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -11705,12 +11762,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530200688"/>
+        <c:crossAx val="501052056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="530200688"/>
+        <c:axId val="501052056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11767,7 +11824,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530204216"/>
+        <c:crossAx val="501047744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12371,11 +12428,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="531750304"/>
-        <c:axId val="531754224"/>
+        <c:axId val="501050096"/>
+        <c:axId val="501052448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="531750304"/>
+        <c:axId val="501050096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12432,12 +12489,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531754224"/>
+        <c:crossAx val="501052448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="531754224"/>
+        <c:axId val="501052448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12494,7 +12551,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531750304"/>
+        <c:crossAx val="501050096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17583,7 +17640,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="96" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="79" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17594,7 +17651,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="96" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="79" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17605,7 +17662,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="96" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="79" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17627,7 +17684,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8651875" cy="6278563"/>
+    <xdr:ext cx="8661722" cy="6269620"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -17964,7 +18021,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8651875" cy="6278563"/>
+    <xdr:ext cx="8661722" cy="6269620"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -18095,7 +18152,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8651875" cy="6278563"/>
+    <xdr:ext cx="8661722" cy="6269620"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -18890,8 +18947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG225"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18934,10 +18991,10 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="O1" t="s">
         <v>25</v>
@@ -19091,7 +19148,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W4" t="s">
         <v>19</v>
@@ -31347,7 +31404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -31361,7 +31418,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>13</v>
@@ -31373,33 +31430,33 @@
         <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="I1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q1">
         <v>40</v>
@@ -31450,7 +31507,7 @@
         <v>39.5</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q2">
         <v>25</v>
@@ -31506,7 +31563,7 @@
         <v>39.408124999999998</v>
       </c>
       <c r="P3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q3">
         <v>600</v>
@@ -31562,7 +31619,7 @@
         <v>39.2376875</v>
       </c>
       <c r="P4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q4">
         <v>15</v>

--- a/Vent_Photon/dataReduction/CoolTerm Capture 2021-01-21 14-12-19.xlsx
+++ b/Vent_Photon/dataReduction/CoolTerm Capture 2021-01-21 14-12-19.xlsx
@@ -769,7 +769,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CoolTerm Capture 2021-01-21 14-'!$AG$4</c:f>
+              <c:f>'CoolTerm Capture 2021-01-21 14-'!$AH$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -804,7 +804,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'CoolTerm Capture 2021-01-21 14-'!$AF$5:$AF$11</c:f>
+              <c:f>'CoolTerm Capture 2021-01-21 14-'!$Y$5:$Y$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -834,7 +834,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CoolTerm Capture 2021-01-21 14-'!$AG$5:$AG$11</c:f>
+              <c:f>'CoolTerm Capture 2021-01-21 14-'!$AH$5:$AH$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -872,11 +872,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="501037160"/>
-        <c:axId val="501044216"/>
+        <c:axId val="411354952"/>
+        <c:axId val="411356128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="501037160"/>
+        <c:axId val="411354952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -933,12 +933,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501044216"/>
+        <c:crossAx val="411356128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="501044216"/>
+        <c:axId val="411356128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -995,7 +995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501037160"/>
+        <c:crossAx val="411354952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1037,6 +1037,731 @@
     </a:p>
   </c:txPr>
   <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HalfStep Data'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>diff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HalfStep Data'!$B$2:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3270</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6060</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8460</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HalfStep Data'!$H$2:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9822319697743112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89083618147462929</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8217459962892484</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1650193859533893</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3890060741437082</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7553232908034069</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0445470422083574</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4120563535997732</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3959126352958506</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3222750865439394</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2091226445284917</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7688120400204568</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2098359215996055</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3380311955833477</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8707280094802243</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6861728907463096</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.59346853606746919</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39691475489783912</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.9311588766251901E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.9000036124506217</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.3000001798533241</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.7000000000104869</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.8000000000000078</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6.3999999999999915</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-7.4000000000000057</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HalfStep Data'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dT_fit_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HalfStep Data'!$B$2:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3270</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6060</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8460</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HalfStep Data'!$I$2:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6296486804249888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.26844136751071</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.572561270539393</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9106196463758671</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5918553115381107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2809612961697274</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9777432813906559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6820117460710731</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3935818483745273</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1122733102257683</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.837910304631083</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5703213457807017</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3093391818645834</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0548006905345897</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5644222743266001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0979598956895016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6542471557072993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.23217454141039617</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.55122044312885699</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.7509337633326716</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.7024280470971469</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.756470711660473</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.5694625667667559</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7.6472338121598646</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.9355554296387147</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7.9921083480932591</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7.9993838066716219</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-7.9999887140255126</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="487471016"/>
+        <c:axId val="487475720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="487471016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="487475720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="487475720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="487471016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1096,7 +1821,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CoolTerm Capture 2021-01-21 14-'!$AD$4</c:f>
+              <c:f>'CoolTerm Capture 2021-01-21 14-'!$AE$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1173,7 +1898,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CoolTerm Capture 2021-01-21 14-'!$AD$5:$AD$15</c:f>
+              <c:f>'CoolTerm Capture 2021-01-21 14-'!$AE$5:$AE$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1223,11 +1948,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="501035592"/>
-        <c:axId val="501042256"/>
+        <c:axId val="410126040"/>
+        <c:axId val="487478072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="501035592"/>
+        <c:axId val="410126040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,12 +2009,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501042256"/>
+        <c:crossAx val="487478072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="501042256"/>
+        <c:axId val="487478072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,7 +2071,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501035592"/>
+        <c:crossAx val="410126040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2850,11 +3575,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="501038728"/>
-        <c:axId val="501043040"/>
+        <c:axId val="487472192"/>
+        <c:axId val="487465920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="501038728"/>
+        <c:axId val="487472192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -2969,12 +3694,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501043040"/>
+        <c:crossAx val="487465920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="501043040"/>
+        <c:axId val="487465920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -3033,7 +3758,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501038728"/>
+        <c:crossAx val="487472192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -4537,11 +5262,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="501045000"/>
-        <c:axId val="501045392"/>
+        <c:axId val="487467096"/>
+        <c:axId val="487469840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="501045000"/>
+        <c:axId val="487467096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="14"/>
@@ -4599,12 +5324,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501045392"/>
+        <c:crossAx val="487469840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="501045392"/>
+        <c:axId val="487469840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4661,7 +5386,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501045000"/>
+        <c:crossAx val="487467096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4761,7 +5486,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CoolTerm Capture 2021-01-21 14-'!$AD$4</c:f>
+              <c:f>'CoolTerm Capture 2021-01-21 14-'!$AE$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4838,7 +5563,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CoolTerm Capture 2021-01-21 14-'!$AD$5:$AD$15</c:f>
+              <c:f>'CoolTerm Capture 2021-01-21 14-'!$AE$5:$AE$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4888,11 +5613,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="501037552"/>
-        <c:axId val="501037944"/>
+        <c:axId val="487470624"/>
+        <c:axId val="487474936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="501037552"/>
+        <c:axId val="487470624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14.3"/>
@@ -4950,12 +5675,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501037944"/>
+        <c:crossAx val="487474936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="501037944"/>
+        <c:axId val="487474936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -5013,7 +5738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501037552"/>
+        <c:crossAx val="487470624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7906,11 +8631,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="501053232"/>
-        <c:axId val="501052840"/>
+        <c:axId val="487472584"/>
+        <c:axId val="487466704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="501053232"/>
+        <c:axId val="487472584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18"/>
@@ -7969,12 +8694,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501052840"/>
+        <c:crossAx val="487466704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="501052840"/>
+        <c:axId val="487466704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60"/>
@@ -8032,7 +8757,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501053232"/>
+        <c:crossAx val="487472584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10968,11 +11693,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="501054408"/>
-        <c:axId val="501051664"/>
+        <c:axId val="487473760"/>
+        <c:axId val="487468272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="501054408"/>
+        <c:axId val="487473760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18"/>
@@ -11031,12 +11756,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501051664"/>
+        <c:crossAx val="487468272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="501051664"/>
+        <c:axId val="487468272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="68"/>
@@ -11095,7 +11820,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501054408"/>
+        <c:crossAx val="487473760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11233,6 +11958,324 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'CoolTerm Capture 2021-01-21 14-'!$AH$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dT_duct_norm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CoolTerm Capture 2021-01-21 14-'!$Y$5:$Y$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.999999999998295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.000000000002984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.000000000001279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119.99999999999957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>149.99999999999787</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210.00000000000085</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CoolTerm Capture 2021-01-21 14-'!$AH$5:$AH$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66820276497695774</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88479262672810999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89400921658986121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96774193548387089</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0092165898617513</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="494192880"/>
+        <c:axId val="494193272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="494192880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494193272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="494193272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494192880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'HalfStep Data'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -11700,11 +12743,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="501047744"/>
-        <c:axId val="501052056"/>
+        <c:axId val="487471800"/>
+        <c:axId val="487469448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="501047744"/>
+        <c:axId val="487471800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -11762,12 +12805,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501052056"/>
+        <c:crossAx val="487469448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="501052056"/>
+        <c:axId val="487469448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11824,7 +12867,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501047744"/>
+        <c:crossAx val="487471800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11838,734 +12881,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'HalfStep Data'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>diff</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'HalfStep Data'!$B$2:$B$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1410</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3270</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4530</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6060</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8460</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'HalfStep Data'!$H$2:$H$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.9822319697743112</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.89083618147462929</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.8217459962892484</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.1650193859533893</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.3890060741437082</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.7553232908034069</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.0445470422083574</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.4120563535997732</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.3959126352958506</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.3222750865439394</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.2091226445284917</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7688120400204568</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.2098359215996055</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.3380311955833477</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.8707280094802243</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6861728907463096</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.59346853606746919</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.39691475489783912</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.9311588766251901E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-3.9000036124506217</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-3.3000001798533241</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-5.7000000000104869</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-6.8000000000000078</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-6.3999999999999915</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-7.0999999999999943</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-7.2999999999999972</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-7.4000000000000057</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'HalfStep Data'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>dT_fit_2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'HalfStep Data'!$B$2:$B$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1410</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3270</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4530</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6060</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8460</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'HalfStep Data'!$I$2:$I$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.6296486804249888</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.26844136751071</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.572561270539393</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9106196463758671</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.5918553115381107</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2809612961697274</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9777432813906559</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.6820117460710731</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.3935818483745273</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.1122733102257683</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.837910304631083</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.5703213457807017</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.3093391818645834</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.0548006905345897</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.5644222743266001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0979598956895016</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.6542471557072993</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.23217454141039617</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.55122044312885699</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-2.7509337633326716</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-3.7024280470971469</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-5.756470711660473</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-6.5694625667667559</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-7.6472338121598646</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-7.9355554296387147</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-7.9921083480932591</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-7.9993838066716219</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-7.9999887140255126</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="501050096"/>
-        <c:axId val="501052448"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="501050096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="501052448"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="501052448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="501050096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12633,6 +12948,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12993,6 +13348,522 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18444,16 +19315,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>234875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>539675</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>101525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18474,16 +19345,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>168537</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>170105</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>159572</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>98388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>465717</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>2241</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>456752</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>91888</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18504,16 +19375,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>113852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>324074</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>125282</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18529,6 +19400,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>143435</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18945,15 +19846,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG225"/>
+  <dimension ref="A1:AH225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -19017,14 +19918,14 @@
       <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <f>12/60+19/3600+14</f>
         <v>14.205277777777777</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>Y1</f>
+        <f>Z1</f>
         <v>14.205277777777777</v>
       </c>
       <c r="B2">
@@ -19063,7 +19964,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>$A$2+(D3-$D$2)/3600</f>
         <v>14.221960277777777</v>
@@ -19107,7 +20008,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="2">$A$2+(D4-$D$2)/3600</f>
         <v>14.238642777777777</v>
@@ -19157,31 +20058,31 @@
         <v>12</v>
       </c>
       <c r="Y4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z4" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>14</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>18</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>22</v>
       </c>
-      <c r="AF4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="2"/>
         <v>14.255325277777777</v>
@@ -19229,34 +20130,34 @@
         <v>14.205277777777777</v>
       </c>
       <c r="Y5">
+        <f>(X5-$X$5)*3600</f>
+        <v>0</v>
+      </c>
+      <c r="Z5">
         <v>86.3</v>
-      </c>
-      <c r="Z5">
-        <v>54</v>
       </c>
       <c r="AA5">
         <v>54</v>
       </c>
       <c r="AB5">
+        <v>54</v>
+      </c>
+      <c r="AC5">
         <v>57</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>59</v>
       </c>
-      <c r="AD5">
-        <f>Y5-Z5</f>
+      <c r="AE5">
+        <f>Z5-AA5</f>
         <v>32.299999999999997</v>
       </c>
-      <c r="AF5">
-        <f>(X5-$X$5)*3600</f>
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <f>1-(AD5-$AD$11)/($AD$5-$AD$11)</f>
+      <c r="AH5">
+        <f>1-(AE5-$AE$11)/($AE$5-$AE$11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="2"/>
         <v>14.272284722222221</v>
@@ -19317,25 +20218,25 @@
         <v>14.21361111111111</v>
       </c>
       <c r="Y6">
+        <f>(X6-$X$5)*3600</f>
+        <v>29.999999999998295</v>
+      </c>
+      <c r="Z6">
         <v>87.4</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>69.599999999999994</v>
       </c>
-      <c r="AD6">
-        <f t="shared" ref="AD6:AD15" si="4">Y6-Z6</f>
+      <c r="AE6">
+        <f t="shared" ref="AE6:AE15" si="4">Z6-AA6</f>
         <v>17.800000000000011</v>
       </c>
-      <c r="AF6">
-        <f t="shared" ref="AF6:AF15" si="5">(X6-$X$5)*3600</f>
-        <v>29.999999999998295</v>
-      </c>
-      <c r="AG6">
-        <f t="shared" ref="AG6:AG11" si="6">1-(AD6-$AD$11)/($AD$5-$AD$11)</f>
+      <c r="AH6">
+        <f t="shared" ref="AH6:AH11" si="5">1-(AE6-$AE$11)/($AE$5-$AE$11)</f>
         <v>0.66820276497695774</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>14.28907861111111</v>
@@ -19382,29 +20283,29 @@
         <v>1</v>
       </c>
       <c r="X7">
-        <f t="shared" ref="X7:X14" si="7">$A$2+W7/60</f>
+        <f t="shared" ref="X7:X14" si="6">$A$2+W7/60</f>
         <v>14.221944444444444</v>
       </c>
       <c r="Y7">
+        <f>(X7-$X$5)*3600</f>
+        <v>60.000000000002984</v>
+      </c>
+      <c r="Z7">
         <v>87.4</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>74.3</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <f t="shared" si="4"/>
         <v>13.100000000000009</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <f t="shared" si="5"/>
-        <v>60.000000000002984</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="6"/>
         <v>0.88479262672810999</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>14.306094444444444</v>
@@ -19461,29 +20362,29 @@
         <v>1.5</v>
       </c>
       <c r="X8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>14.230277777777777</v>
       </c>
       <c r="Y8">
+        <f>(X8-$X$5)*3600</f>
+        <v>90.000000000001279</v>
+      </c>
+      <c r="Z8">
         <v>87.9</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>75</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <f t="shared" si="4"/>
         <v>12.900000000000006</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <f t="shared" si="5"/>
-        <v>90.000000000001279</v>
-      </c>
-      <c r="AG8">
-        <f t="shared" si="6"/>
         <v>0.89400921658986121</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>14.322889722222222</v>
@@ -19540,29 +20441,29 @@
         <v>2</v>
       </c>
       <c r="X9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>14.23861111111111</v>
       </c>
       <c r="Y9">
+        <f>(X9-$X$5)*3600</f>
+        <v>119.99999999999957</v>
+      </c>
+      <c r="Z9">
         <v>89</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>77.7</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <f t="shared" si="4"/>
         <v>11.299999999999997</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <f t="shared" si="5"/>
-        <v>119.99999999999957</v>
-      </c>
-      <c r="AG9">
-        <f t="shared" si="6"/>
         <v>0.96774193548387089</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>14.339683611111111</v>
@@ -19619,29 +20520,29 @@
         <v>2.5</v>
       </c>
       <c r="X10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>14.246944444444443</v>
       </c>
       <c r="Y10">
+        <f>(X10-$X$5)*3600</f>
+        <v>149.99999999999787</v>
+      </c>
+      <c r="Z10">
         <v>88.1</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>77.7</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <f t="shared" si="4"/>
         <v>10.399999999999991</v>
       </c>
-      <c r="AF10">
+      <c r="AH10">
         <f t="shared" si="5"/>
-        <v>149.99999999999787</v>
-      </c>
-      <c r="AG10">
-        <f t="shared" si="6"/>
         <v>1.0092165898617513</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>14.356477222222221</v>
@@ -19695,38 +20596,38 @@
         <v>3.5</v>
       </c>
       <c r="X11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>14.263611111111111</v>
       </c>
       <c r="Y11">
+        <f>(X11-$X$5)*3600</f>
+        <v>210.00000000000085</v>
+      </c>
+      <c r="Z11">
         <v>88.8</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>78.2</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>57</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>59.8</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>58.4</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <f t="shared" si="4"/>
         <v>10.599999999999994</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <f t="shared" si="5"/>
-        <v>210.00000000000085</v>
-      </c>
-      <c r="AG11">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>14.373270833333333</v>
@@ -19783,34 +20684,34 @@
         <v>22.5</v>
       </c>
       <c r="X12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>14.580277777777777</v>
       </c>
       <c r="Y12">
+        <f>(X12-$X$5)*3600</f>
+        <v>1350</v>
+      </c>
+      <c r="Z12">
         <v>87.4</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>82.4</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>60</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>60.8</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>57.3</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AF12">
-        <f t="shared" si="5"/>
-        <v>1350</v>
-      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="2"/>
         <v>14.390064722222222</v>
@@ -19867,25 +20768,25 @@
         <v>24.5</v>
       </c>
       <c r="X13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>14.61361111111111</v>
       </c>
       <c r="Y13">
+        <f>(X13-$X$5)*3600</f>
+        <v>1469.9999999999995</v>
+      </c>
+      <c r="Z13">
         <v>86.7</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>82.7</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="AF13">
-        <f t="shared" si="5"/>
-        <v>1469.9999999999995</v>
-      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>14.40685861111111</v>
@@ -19942,34 +20843,34 @@
         <v>34.5</v>
       </c>
       <c r="X14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>14.780277777777776</v>
       </c>
       <c r="Y14">
+        <f>(X14-$X$5)*3600</f>
+        <v>2069.9999999999973</v>
+      </c>
+      <c r="Z14">
         <v>87.8</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>81.8</v>
-      </c>
-      <c r="AA14">
-        <v>60</v>
       </c>
       <c r="AB14">
         <v>60</v>
       </c>
       <c r="AC14">
+        <v>60</v>
+      </c>
+      <c r="AD14">
         <v>57.5</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="AF14">
-        <f t="shared" si="5"/>
-        <v>2069.9999999999973</v>
-      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>14.423654166666665</v>
@@ -20030,21 +20931,21 @@
         <v>15.316666666666666</v>
       </c>
       <c r="Y15">
+        <f>(X15-$X$5)*3600</f>
+        <v>4001.0000000000018</v>
+      </c>
+      <c r="Z15">
         <v>88.1</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>83.4</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <f t="shared" si="4"/>
         <v>4.6999999999999886</v>
       </c>
-      <c r="AF15">
-        <f t="shared" si="5"/>
-        <v>4001.0000000000018</v>
-      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>14.440448055555555</v>
@@ -20959,7 +21860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="2"/>
         <v>14.725950555555555</v>
@@ -21013,7 +21914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="2"/>
         <v>14.742744444444444</v>
@@ -21067,7 +21968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="2"/>
         <v>14.759538055555556</v>
@@ -21129,12 +22030,12 @@
       <c r="S35">
         <v>67</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <f>0.1*3600</f>
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="2"/>
         <v>14.776333888888889</v>
@@ -21188,7 +22089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="2"/>
         <v>14.793127777777777</v>
@@ -21242,7 +22143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>14.809921388888888</v>
@@ -21296,7 +22197,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="2"/>
         <v>14.826717499999999</v>
@@ -21350,7 +22251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="2"/>
         <v>14.843511111111111</v>
@@ -21404,7 +22305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="2"/>
         <v>14.860304722222221</v>
@@ -21458,7 +22359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="2"/>
         <v>14.877099444444443</v>
@@ -21512,7 +22413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="2"/>
         <v>14.893893055555555</v>
@@ -21566,7 +22467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="2"/>
         <v>14.910686944444443</v>
@@ -21620,7 +22521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="2"/>
         <v>14.9274825</v>
@@ -21674,7 +22575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="2"/>
         <v>14.94427611111111</v>
@@ -21728,7 +22629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="2"/>
         <v>14.961069999999999</v>
@@ -21782,7 +22683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="2"/>
         <v>14.977863888888889</v>
@@ -22847,15 +23748,15 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M130" si="8">G67-H67</f>
+        <f t="shared" ref="M67:M130" si="7">G67-H67</f>
         <v>20</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N130" si="9">(A67-$Q$35)*3600</f>
+        <f t="shared" ref="N67:N130" si="8">(A67-$Q$35)*3600</f>
         <v>2041.0059999999937</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O130" si="10">(H67-$R$35)/($S$35-$R$35)</f>
+        <f t="shared" ref="O67:O130" si="9">(H67-$R$35)/($S$35-$R$35)</f>
         <v>0.42622950819672145</v>
       </c>
       <c r="P67" t="s">
@@ -22864,7 +23765,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68">
-        <f t="shared" ref="A68:A131" si="11">$A$2+(D68-$D$2)/3600</f>
+        <f t="shared" ref="A68:A131" si="10">$A$2+(D68-$D$2)/3600</f>
         <v>15.313739722222222</v>
       </c>
       <c r="B68">
@@ -22901,15 +23802,15 @@
         <v>0</v>
       </c>
       <c r="M68">
+        <f t="shared" si="7"/>
+        <v>19.899999999999991</v>
+      </c>
+      <c r="N68">
         <f t="shared" si="8"/>
-        <v>19.899999999999991</v>
-      </c>
-      <c r="N68">
+        <v>2101.4629999999961</v>
+      </c>
+      <c r="O68">
         <f t="shared" si="9"/>
-        <v>2101.4629999999961</v>
-      </c>
-      <c r="O68">
-        <f t="shared" si="10"/>
         <v>0.45901639344262352</v>
       </c>
       <c r="P68" t="s">
@@ -22918,7 +23819,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.330533888888889</v>
       </c>
       <c r="B69">
@@ -22955,15 +23856,15 @@
         <v>0</v>
       </c>
       <c r="M69">
+        <f t="shared" si="7"/>
+        <v>19.899999999999991</v>
+      </c>
+      <c r="N69">
         <f t="shared" si="8"/>
-        <v>19.899999999999991</v>
-      </c>
-      <c r="N69">
+        <v>2161.9219999999978</v>
+      </c>
+      <c r="O69">
         <f t="shared" si="9"/>
-        <v>2161.9219999999978</v>
-      </c>
-      <c r="O69">
-        <f t="shared" si="10"/>
         <v>0.45901639344262352</v>
       </c>
       <c r="P69" t="s">
@@ -22972,7 +23873,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.347327499999999</v>
       </c>
       <c r="B70">
@@ -23009,15 +23910,15 @@
         <v>0</v>
       </c>
       <c r="M70">
+        <f t="shared" si="7"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="N70">
         <f t="shared" si="8"/>
-        <v>19.799999999999997</v>
-      </c>
-      <c r="N70">
+        <v>2222.3789999999935</v>
+      </c>
+      <c r="O70">
         <f t="shared" si="9"/>
-        <v>2222.3789999999935</v>
-      </c>
-      <c r="O70">
-        <f t="shared" si="10"/>
         <v>0.45901639344262352</v>
       </c>
       <c r="P70" t="s">
@@ -23026,7 +23927,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.36412111111111</v>
       </c>
       <c r="B71">
@@ -23063,15 +23964,15 @@
         <v>0</v>
       </c>
       <c r="M71">
+        <f t="shared" si="7"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="N71">
         <f t="shared" si="8"/>
-        <v>19.799999999999997</v>
-      </c>
-      <c r="N71">
+        <v>2282.8359999999961</v>
+      </c>
+      <c r="O71">
         <f t="shared" si="9"/>
-        <v>2282.8359999999961</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="10"/>
         <v>0.47540983606557341</v>
       </c>
       <c r="P71" t="s">
@@ -23080,7 +23981,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.380915277777778</v>
       </c>
       <c r="B72">
@@ -23117,15 +24018,15 @@
         <v>0</v>
       </c>
       <c r="M72">
+        <f t="shared" si="7"/>
+        <v>19.699999999999996</v>
+      </c>
+      <c r="N72">
         <f t="shared" si="8"/>
-        <v>19.699999999999996</v>
-      </c>
-      <c r="N72">
+        <v>2343.2949999999978</v>
+      </c>
+      <c r="O72">
         <f t="shared" si="9"/>
-        <v>2343.2949999999978</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="10"/>
         <v>0.49180327868852447</v>
       </c>
       <c r="P72" t="s">
@@ -23134,7 +24035,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.397710833333333</v>
       </c>
       <c r="B73">
@@ -23171,15 +24072,15 @@
         <v>0</v>
       </c>
       <c r="M73">
+        <f t="shared" si="7"/>
+        <v>19.800000000000004</v>
+      </c>
+      <c r="N73">
         <f t="shared" si="8"/>
-        <v>19.800000000000004</v>
-      </c>
-      <c r="N73">
+        <v>2403.7589999999973</v>
+      </c>
+      <c r="O73">
         <f t="shared" si="9"/>
-        <v>2403.7589999999973</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="10"/>
         <v>0.49180327868852447</v>
       </c>
       <c r="P73" t="s">
@@ -23188,7 +24089,7 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.414504444444443</v>
       </c>
       <c r="B74">
@@ -23225,15 +24126,15 @@
         <v>0</v>
       </c>
       <c r="M74">
+        <f t="shared" si="7"/>
+        <v>19.699999999999996</v>
+      </c>
+      <c r="N74">
         <f t="shared" si="8"/>
-        <v>19.699999999999996</v>
-      </c>
-      <c r="N74">
+        <v>2464.2159999999931</v>
+      </c>
+      <c r="O74">
         <f t="shared" si="9"/>
-        <v>2464.2159999999931</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="10"/>
         <v>0.49180327868852447</v>
       </c>
       <c r="P74" t="s">
@@ -23242,7 +24143,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.431298333333332</v>
       </c>
       <c r="B75">
@@ -23279,15 +24180,15 @@
         <v>0</v>
       </c>
       <c r="M75">
+        <f t="shared" si="7"/>
+        <v>19.599999999999994</v>
+      </c>
+      <c r="N75">
         <f t="shared" si="8"/>
-        <v>19.599999999999994</v>
-      </c>
-      <c r="N75">
+        <v>2524.6739999999954</v>
+      </c>
+      <c r="O75">
         <f t="shared" si="9"/>
-        <v>2524.6739999999954</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="10"/>
         <v>0.50819672131147553</v>
       </c>
       <c r="P75" t="s">
@@ -23296,7 +24197,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.448092222222222</v>
       </c>
       <c r="B76">
@@ -23333,15 +24234,15 @@
         <v>0</v>
       </c>
       <c r="M76">
+        <f t="shared" si="7"/>
+        <v>19.599999999999994</v>
+      </c>
+      <c r="N76">
         <f t="shared" si="8"/>
-        <v>19.599999999999994</v>
-      </c>
-      <c r="N76">
+        <v>2585.1319999999973</v>
+      </c>
+      <c r="O76">
         <f t="shared" si="9"/>
-        <v>2585.1319999999973</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="10"/>
         <v>0.50819672131147553</v>
       </c>
       <c r="P76" t="s">
@@ -23350,7 +24251,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.46488611111111</v>
       </c>
       <c r="B77">
@@ -23387,15 +24288,15 @@
         <v>0</v>
       </c>
       <c r="M77">
+        <f t="shared" si="7"/>
+        <v>19.600000000000009</v>
+      </c>
+      <c r="N77">
         <f t="shared" si="8"/>
-        <v>19.600000000000009</v>
-      </c>
-      <c r="N77">
+        <v>2645.5899999999929</v>
+      </c>
+      <c r="O77">
         <f t="shared" si="9"/>
-        <v>2645.5899999999929</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="10"/>
         <v>0.52459016393442537</v>
       </c>
       <c r="P77" t="s">
@@ -23404,7 +24305,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.481679722222221</v>
       </c>
       <c r="B78">
@@ -23441,15 +24342,15 @@
         <v>0</v>
       </c>
       <c r="M78">
+        <f t="shared" si="7"/>
+        <v>19.600000000000009</v>
+      </c>
+      <c r="N78">
         <f t="shared" si="8"/>
-        <v>19.600000000000009</v>
-      </c>
-      <c r="N78">
+        <v>2706.046999999995</v>
+      </c>
+      <c r="O78">
         <f t="shared" si="9"/>
-        <v>2706.046999999995</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="10"/>
         <v>0.52459016393442537</v>
       </c>
       <c r="P78" t="s">
@@ -23458,7 +24359,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.498474722222221</v>
       </c>
       <c r="B79">
@@ -23495,15 +24396,15 @@
         <v>0</v>
       </c>
       <c r="M79">
+        <f t="shared" si="7"/>
+        <v>19.800000000000011</v>
+      </c>
+      <c r="N79">
         <f t="shared" si="8"/>
-        <v>19.800000000000011</v>
-      </c>
-      <c r="N79">
+        <v>2766.5089999999955</v>
+      </c>
+      <c r="O79">
         <f t="shared" si="9"/>
-        <v>2766.5089999999955</v>
-      </c>
-      <c r="O79">
-        <f t="shared" si="10"/>
         <v>0.52459016393442537</v>
       </c>
       <c r="P79" t="s">
@@ -23512,7 +24413,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.515268611111111</v>
       </c>
       <c r="B80">
@@ -23549,15 +24450,15 @@
         <v>0</v>
       </c>
       <c r="M80">
+        <f t="shared" si="7"/>
+        <v>19.800000000000011</v>
+      </c>
+      <c r="N80">
         <f t="shared" si="8"/>
-        <v>19.800000000000011</v>
-      </c>
-      <c r="N80">
+        <v>2826.9669999999978</v>
+      </c>
+      <c r="O80">
         <f t="shared" si="9"/>
-        <v>2826.9669999999978</v>
-      </c>
-      <c r="O80">
-        <f t="shared" si="10"/>
         <v>0.52459016393442537</v>
       </c>
       <c r="P80" t="s">
@@ -23566,7 +24467,7 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.532062222222221</v>
       </c>
       <c r="B81">
@@ -23603,15 +24504,15 @@
         <v>0</v>
       </c>
       <c r="M81">
+        <f t="shared" si="7"/>
+        <v>19.700000000000003</v>
+      </c>
+      <c r="N81">
         <f t="shared" si="8"/>
-        <v>19.700000000000003</v>
-      </c>
-      <c r="N81">
+        <v>2887.4239999999936</v>
+      </c>
+      <c r="O81">
         <f t="shared" si="9"/>
-        <v>2887.4239999999936</v>
-      </c>
-      <c r="O81">
-        <f t="shared" si="10"/>
         <v>0.54098360655737765</v>
       </c>
       <c r="P81" t="s">
@@ -23620,7 +24521,7 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.548856666666666</v>
       </c>
       <c r="B82">
@@ -23657,15 +24558,15 @@
         <v>0</v>
       </c>
       <c r="M82">
+        <f t="shared" si="7"/>
+        <v>19.700000000000003</v>
+      </c>
+      <c r="N82">
         <f t="shared" si="8"/>
-        <v>19.700000000000003</v>
-      </c>
-      <c r="N82">
+        <v>2947.883999999995</v>
+      </c>
+      <c r="O82">
         <f t="shared" si="9"/>
-        <v>2947.883999999995</v>
-      </c>
-      <c r="O82">
-        <f t="shared" si="10"/>
         <v>0.54098360655737765</v>
       </c>
       <c r="P82" t="s">
@@ -23674,7 +24575,7 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.565650277777777</v>
       </c>
       <c r="B83">
@@ -23711,15 +24612,15 @@
         <v>0</v>
       </c>
       <c r="M83">
+        <f t="shared" si="7"/>
+        <v>19.600000000000009</v>
+      </c>
+      <c r="N83">
         <f t="shared" si="8"/>
-        <v>19.600000000000009</v>
-      </c>
-      <c r="N83">
+        <v>3008.3409999999972</v>
+      </c>
+      <c r="O83">
         <f t="shared" si="9"/>
-        <v>3008.3409999999972</v>
-      </c>
-      <c r="O83">
-        <f t="shared" si="10"/>
         <v>0.55737704918032749</v>
       </c>
       <c r="P83" t="s">
@@ -23728,7 +24629,7 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.582443888888887</v>
       </c>
       <c r="B84">
@@ -23765,15 +24666,15 @@
         <v>0</v>
       </c>
       <c r="M84">
+        <f t="shared" si="7"/>
+        <v>19.600000000000009</v>
+      </c>
+      <c r="N84">
         <f t="shared" si="8"/>
-        <v>19.600000000000009</v>
-      </c>
-      <c r="N84">
+        <v>3068.7979999999934</v>
+      </c>
+      <c r="O84">
         <f t="shared" si="9"/>
-        <v>3068.7979999999934</v>
-      </c>
-      <c r="O84">
-        <f t="shared" si="10"/>
         <v>0.55737704918032749</v>
       </c>
       <c r="P84" t="s">
@@ -23782,7 +24683,7 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.599238888888888</v>
       </c>
       <c r="B85">
@@ -23819,15 +24720,15 @@
         <v>0</v>
       </c>
       <c r="M85">
+        <f t="shared" si="7"/>
+        <v>19.600000000000009</v>
+      </c>
+      <c r="N85">
         <f t="shared" si="8"/>
-        <v>19.600000000000009</v>
-      </c>
-      <c r="N85">
+        <v>3129.2599999999939</v>
+      </c>
+      <c r="O85">
         <f t="shared" si="9"/>
-        <v>3129.2599999999939</v>
-      </c>
-      <c r="O85">
-        <f t="shared" si="10"/>
         <v>0.55737704918032749</v>
       </c>
       <c r="P85" t="s">
@@ -23836,7 +24737,7 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.616032777777777</v>
       </c>
       <c r="B86">
@@ -23873,15 +24774,15 @@
         <v>0</v>
       </c>
       <c r="M86">
+        <f t="shared" si="7"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="N86">
         <f t="shared" si="8"/>
-        <v>19.799999999999997</v>
-      </c>
-      <c r="N86">
+        <v>3189.7179999999958</v>
+      </c>
+      <c r="O86">
         <f t="shared" si="9"/>
-        <v>3189.7179999999958</v>
-      </c>
-      <c r="O86">
-        <f t="shared" si="10"/>
         <v>0.55737704918032749</v>
       </c>
       <c r="P86" t="s">
@@ -23890,7 +24791,7 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.632826388888889</v>
       </c>
       <c r="B87">
@@ -23927,15 +24828,15 @@
         <v>0</v>
       </c>
       <c r="M87">
+        <f t="shared" si="7"/>
+        <v>19.599999999999994</v>
+      </c>
+      <c r="N87">
         <f t="shared" si="8"/>
-        <v>19.599999999999994</v>
-      </c>
-      <c r="N87">
+        <v>3250.1749999999979</v>
+      </c>
+      <c r="O87">
         <f t="shared" si="9"/>
-        <v>3250.1749999999979</v>
-      </c>
-      <c r="O87">
-        <f t="shared" si="10"/>
         <v>0.57377049180327977</v>
       </c>
       <c r="P87" t="s">
@@ -23944,7 +24845,7 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.649620833333334</v>
       </c>
       <c r="B88">
@@ -23981,15 +24882,15 @@
         <v>0</v>
       </c>
       <c r="M88">
+        <f t="shared" si="7"/>
+        <v>19.5</v>
+      </c>
+      <c r="N88">
         <f t="shared" si="8"/>
-        <v>19.5</v>
-      </c>
-      <c r="N88">
+        <v>3310.6349999999993</v>
+      </c>
+      <c r="O88">
         <f t="shared" si="9"/>
-        <v>3310.6349999999993</v>
-      </c>
-      <c r="O88">
-        <f t="shared" si="10"/>
         <v>0.59016393442622961</v>
       </c>
       <c r="P88" t="s">
@@ -23998,7 +24899,7 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.666414722222221</v>
       </c>
       <c r="B89">
@@ -24035,15 +24936,15 @@
         <v>0</v>
       </c>
       <c r="M89">
+        <f t="shared" si="7"/>
+        <v>19.5</v>
+      </c>
+      <c r="N89">
         <f t="shared" si="8"/>
-        <v>19.5</v>
-      </c>
-      <c r="N89">
+        <v>3371.0929999999948</v>
+      </c>
+      <c r="O89">
         <f t="shared" si="9"/>
-        <v>3371.0929999999948</v>
-      </c>
-      <c r="O89">
-        <f t="shared" si="10"/>
         <v>0.59016393442622961</v>
       </c>
       <c r="P89" t="s">
@@ -24052,7 +24953,7 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.683208333333333</v>
       </c>
       <c r="B90">
@@ -24089,15 +24990,15 @@
         <v>0</v>
       </c>
       <c r="M90">
+        <f t="shared" si="7"/>
+        <v>19.400000000000006</v>
+      </c>
+      <c r="N90">
         <f t="shared" si="8"/>
-        <v>19.400000000000006</v>
-      </c>
-      <c r="N90">
+        <v>3431.549999999997</v>
+      </c>
+      <c r="O90">
         <f t="shared" si="9"/>
-        <v>3431.549999999997</v>
-      </c>
-      <c r="O90">
-        <f t="shared" si="10"/>
         <v>0.59016393442622961</v>
       </c>
       <c r="P90" t="s">
@@ -24106,7 +25007,7 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.70000611111111</v>
       </c>
       <c r="B91">
@@ -24143,15 +25044,15 @@
         <v>0</v>
       </c>
       <c r="M91">
+        <f t="shared" si="7"/>
+        <v>19.400000000000006</v>
+      </c>
+      <c r="N91">
         <f t="shared" si="8"/>
-        <v>19.400000000000006</v>
-      </c>
-      <c r="N91">
+        <v>3492.0219999999936</v>
+      </c>
+      <c r="O91">
         <f t="shared" si="9"/>
-        <v>3492.0219999999936</v>
-      </c>
-      <c r="O91">
-        <f t="shared" si="10"/>
         <v>0.59016393442622961</v>
       </c>
       <c r="P91" t="s">
@@ -24160,7 +25061,7 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.716799722222222</v>
       </c>
       <c r="B92">
@@ -24197,15 +25098,15 @@
         <v>0</v>
       </c>
       <c r="M92">
+        <f t="shared" si="7"/>
+        <v>19.300000000000011</v>
+      </c>
+      <c r="N92">
         <f t="shared" si="8"/>
-        <v>19.300000000000011</v>
-      </c>
-      <c r="N92">
+        <v>3552.4789999999962</v>
+      </c>
+      <c r="O92">
         <f t="shared" si="9"/>
-        <v>3552.4789999999962</v>
-      </c>
-      <c r="O92">
-        <f t="shared" si="10"/>
         <v>0.60655737704917945</v>
       </c>
       <c r="P92" t="s">
@@ -24214,7 +25115,7 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.733593611111111</v>
       </c>
       <c r="B93">
@@ -24251,15 +25152,15 @@
         <v>0</v>
       </c>
       <c r="M93">
+        <f t="shared" si="7"/>
+        <v>19.200000000000003</v>
+      </c>
+      <c r="N93">
         <f t="shared" si="8"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="N93">
+        <v>3612.9369999999981</v>
+      </c>
+      <c r="O93">
         <f t="shared" si="9"/>
-        <v>3612.9369999999981</v>
-      </c>
-      <c r="O93">
-        <f t="shared" si="10"/>
         <v>0.62295081967213173</v>
       </c>
       <c r="P93" t="s">
@@ -24268,7 +25169,7 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.750388333333333</v>
       </c>
       <c r="B94">
@@ -24305,15 +25206,15 @@
         <v>0</v>
       </c>
       <c r="M94">
+        <f t="shared" si="7"/>
+        <v>19.400000000000006</v>
+      </c>
+      <c r="N94">
         <f t="shared" si="8"/>
-        <v>19.400000000000006</v>
-      </c>
-      <c r="N94">
+        <v>3673.3979999999988</v>
+      </c>
+      <c r="O94">
         <f t="shared" si="9"/>
-        <v>3673.3979999999988</v>
-      </c>
-      <c r="O94">
-        <f t="shared" si="10"/>
         <v>0.63934426229508157</v>
       </c>
       <c r="P94" t="s">
@@ -24322,7 +25223,7 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.767181944444443</v>
       </c>
       <c r="B95">
@@ -24359,15 +25260,15 @@
         <v>0</v>
       </c>
       <c r="M95">
+        <f t="shared" si="7"/>
+        <v>19.299999999999997</v>
+      </c>
+      <c r="N95">
         <f t="shared" si="8"/>
-        <v>19.299999999999997</v>
-      </c>
-      <c r="N95">
+        <v>3733.854999999995</v>
+      </c>
+      <c r="O95">
         <f t="shared" si="9"/>
-        <v>3733.854999999995</v>
-      </c>
-      <c r="O95">
-        <f t="shared" si="10"/>
         <v>0.63934426229508157</v>
       </c>
       <c r="P95" t="s">
@@ -24376,7 +25277,7 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.783975833333333</v>
       </c>
       <c r="B96">
@@ -24413,15 +25314,15 @@
         <v>0</v>
       </c>
       <c r="M96">
+        <f t="shared" si="7"/>
+        <v>19.299999999999997</v>
+      </c>
+      <c r="N96">
         <f t="shared" si="8"/>
-        <v>19.299999999999997</v>
-      </c>
-      <c r="N96">
+        <v>3794.3129999999969</v>
+      </c>
+      <c r="O96">
         <f t="shared" si="9"/>
-        <v>3794.3129999999969</v>
-      </c>
-      <c r="O96">
-        <f t="shared" si="10"/>
         <v>0.63934426229508157</v>
       </c>
       <c r="P96" t="s">
@@ -24430,7 +25331,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.800772222222221</v>
       </c>
       <c r="B97">
@@ -24467,15 +25368,15 @@
         <v>0</v>
       </c>
       <c r="M97">
+        <f t="shared" si="7"/>
+        <v>19.299999999999997</v>
+      </c>
+      <c r="N97">
         <f t="shared" si="8"/>
-        <v>19.299999999999997</v>
-      </c>
-      <c r="N97">
+        <v>3854.7799999999952</v>
+      </c>
+      <c r="O97">
         <f t="shared" si="9"/>
-        <v>3854.7799999999952</v>
-      </c>
-      <c r="O97">
-        <f t="shared" si="10"/>
         <v>0.65573770491803385</v>
       </c>
       <c r="P97" t="s">
@@ -24484,7 +25385,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.817566111111111</v>
       </c>
       <c r="B98">
@@ -24521,15 +25422,15 @@
         <v>0</v>
       </c>
       <c r="M98">
+        <f t="shared" si="7"/>
+        <v>19.199999999999989</v>
+      </c>
+      <c r="N98">
         <f t="shared" si="8"/>
-        <v>19.199999999999989</v>
-      </c>
-      <c r="N98">
+        <v>3915.2379999999971</v>
+      </c>
+      <c r="O98">
         <f t="shared" si="9"/>
-        <v>3915.2379999999971</v>
-      </c>
-      <c r="O98">
-        <f t="shared" si="10"/>
         <v>0.65573770491803385</v>
       </c>
       <c r="P98">
@@ -24538,7 +25439,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.834359722222221</v>
       </c>
       <c r="B99">
@@ -24575,15 +25476,15 @@
         <v>0</v>
       </c>
       <c r="M99">
+        <f t="shared" si="7"/>
+        <v>19.299999999999997</v>
+      </c>
+      <c r="N99">
         <f t="shared" si="8"/>
-        <v>19.299999999999997</v>
-      </c>
-      <c r="N99">
+        <v>3975.6949999999933</v>
+      </c>
+      <c r="O99">
         <f t="shared" si="9"/>
-        <v>3975.6949999999933</v>
-      </c>
-      <c r="O99">
-        <f t="shared" si="10"/>
         <v>0.65573770491803385</v>
       </c>
       <c r="P99" t="s">
@@ -24592,7 +25493,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.85115361111111</v>
       </c>
       <c r="B100">
@@ -24629,15 +25530,15 @@
         <v>0</v>
       </c>
       <c r="M100">
+        <f t="shared" si="7"/>
+        <v>19.399999999999991</v>
+      </c>
+      <c r="N100">
         <f t="shared" si="8"/>
-        <v>19.399999999999991</v>
-      </c>
-      <c r="N100">
+        <v>4036.1529999999952</v>
+      </c>
+      <c r="O100">
         <f t="shared" si="9"/>
-        <v>4036.1529999999952</v>
-      </c>
-      <c r="O100">
-        <f t="shared" si="10"/>
         <v>0.65573770491803385</v>
       </c>
       <c r="P100" t="s">
@@ -24646,7 +25547,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.867947222222222</v>
       </c>
       <c r="B101">
@@ -24683,15 +25584,15 @@
         <v>0</v>
       </c>
       <c r="M101">
+        <f t="shared" si="7"/>
+        <v>19.399999999999991</v>
+      </c>
+      <c r="N101">
         <f t="shared" si="8"/>
-        <v>19.399999999999991</v>
-      </c>
-      <c r="N101">
+        <v>4096.6099999999979</v>
+      </c>
+      <c r="O101">
         <f t="shared" si="9"/>
-        <v>4096.6099999999979</v>
-      </c>
-      <c r="O101">
-        <f t="shared" si="10"/>
         <v>0.65573770491803385</v>
       </c>
       <c r="P101" t="s">
@@ -24700,7 +25601,7 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.88474111111111</v>
       </c>
       <c r="B102">
@@ -24737,15 +25638,15 @@
         <v>0</v>
       </c>
       <c r="M102">
+        <f t="shared" si="7"/>
+        <v>19.400000000000006</v>
+      </c>
+      <c r="N102">
         <f t="shared" si="8"/>
-        <v>19.400000000000006</v>
-      </c>
-      <c r="N102">
+        <v>4157.0679999999929</v>
+      </c>
+      <c r="O102">
         <f t="shared" si="9"/>
-        <v>4157.0679999999929</v>
-      </c>
-      <c r="O102">
-        <f t="shared" si="10"/>
         <v>0.67213114754098369</v>
       </c>
       <c r="P102" t="s">
@@ -24754,7 +25655,7 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.9015375</v>
       </c>
       <c r="B103">
@@ -24791,15 +25692,15 @@
         <v>0</v>
       </c>
       <c r="M103">
+        <f t="shared" si="7"/>
+        <v>19.400000000000006</v>
+      </c>
+      <c r="N103">
         <f t="shared" si="8"/>
-        <v>19.400000000000006</v>
-      </c>
-      <c r="N103">
+        <v>4217.534999999998</v>
+      </c>
+      <c r="O103">
         <f t="shared" si="9"/>
-        <v>4217.534999999998</v>
-      </c>
-      <c r="O103">
-        <f t="shared" si="10"/>
         <v>0.67213114754098369</v>
       </c>
       <c r="P103" t="s">
@@ -24808,7 +25709,7 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.91833111111111</v>
       </c>
       <c r="B104">
@@ -24845,15 +25746,15 @@
         <v>0</v>
       </c>
       <c r="M104">
+        <f t="shared" si="7"/>
+        <v>19.300000000000011</v>
+      </c>
+      <c r="N104">
         <f t="shared" si="8"/>
-        <v>19.300000000000011</v>
-      </c>
-      <c r="N104">
+        <v>4277.9919999999938</v>
+      </c>
+      <c r="O104">
         <f t="shared" si="9"/>
-        <v>4277.9919999999938</v>
-      </c>
-      <c r="O104">
-        <f t="shared" si="10"/>
         <v>0.68852459016393353</v>
       </c>
       <c r="P104" t="s">
@@ -24862,7 +25763,7 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.935124999999999</v>
       </c>
       <c r="B105">
@@ -24899,15 +25800,15 @@
         <v>0</v>
       </c>
       <c r="M105">
+        <f t="shared" si="7"/>
+        <v>19.400000000000006</v>
+      </c>
+      <c r="N105">
         <f t="shared" si="8"/>
-        <v>19.400000000000006</v>
-      </c>
-      <c r="N105">
+        <v>4338.4499999999962</v>
+      </c>
+      <c r="O105">
         <f t="shared" si="9"/>
-        <v>4338.4499999999962</v>
-      </c>
-      <c r="O105">
-        <f t="shared" si="10"/>
         <v>0.68852459016393353</v>
       </c>
       <c r="P105" t="s">
@@ -24916,7 +25817,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.951920833333332</v>
       </c>
       <c r="B106">
@@ -24953,15 +25854,15 @@
         <v>0</v>
       </c>
       <c r="M106">
+        <f t="shared" si="7"/>
+        <v>19.600000000000009</v>
+      </c>
+      <c r="N106">
         <f t="shared" si="8"/>
-        <v>19.600000000000009</v>
-      </c>
-      <c r="N106">
+        <v>4398.9149999999954</v>
+      </c>
+      <c r="O106">
         <f t="shared" si="9"/>
-        <v>4398.9149999999954</v>
-      </c>
-      <c r="O106">
-        <f t="shared" si="10"/>
         <v>0.68852459016393353</v>
       </c>
       <c r="P106" t="s">
@@ -24970,7 +25871,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.968714444444444</v>
       </c>
       <c r="B107">
@@ -25007,15 +25908,15 @@
         <v>0</v>
       </c>
       <c r="M107">
+        <f t="shared" si="7"/>
+        <v>19.400000000000006</v>
+      </c>
+      <c r="N107">
         <f t="shared" si="8"/>
-        <v>19.400000000000006</v>
-      </c>
-      <c r="N107">
+        <v>4459.3719999999976</v>
+      </c>
+      <c r="O107">
         <f t="shared" si="9"/>
-        <v>4459.3719999999976</v>
-      </c>
-      <c r="O107">
-        <f t="shared" si="10"/>
         <v>0.68852459016393353</v>
       </c>
       <c r="P107" t="s">
@@ -25024,7 +25925,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.985508333333332</v>
       </c>
       <c r="B108">
@@ -25061,15 +25962,15 @@
         <v>0</v>
       </c>
       <c r="M108">
+        <f t="shared" si="7"/>
+        <v>19.5</v>
+      </c>
+      <c r="N108">
         <f t="shared" si="8"/>
-        <v>19.5</v>
-      </c>
-      <c r="N108">
+        <v>4519.8299999999936</v>
+      </c>
+      <c r="O108">
         <f t="shared" si="9"/>
-        <v>4519.8299999999936</v>
-      </c>
-      <c r="O108">
-        <f t="shared" si="10"/>
         <v>0.70491803278688581</v>
       </c>
       <c r="P108" t="s">
@@ -25078,7 +25979,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.002304166666665</v>
       </c>
       <c r="B109">
@@ -25115,15 +26016,15 @@
         <v>0</v>
       </c>
       <c r="M109">
+        <f t="shared" si="7"/>
+        <v>19.400000000000006</v>
+      </c>
+      <c r="N109">
         <f t="shared" si="8"/>
-        <v>19.400000000000006</v>
-      </c>
-      <c r="N109">
+        <v>4580.2949999999928</v>
+      </c>
+      <c r="O109">
         <f t="shared" si="9"/>
-        <v>4580.2949999999928</v>
-      </c>
-      <c r="O109">
-        <f t="shared" si="10"/>
         <v>0.72131147540983565</v>
       </c>
       <c r="P109" t="s">
@@ -25132,7 +26033,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.019097777777777</v>
       </c>
       <c r="B110">
@@ -25169,15 +26070,15 @@
         <v>0</v>
       </c>
       <c r="M110">
+        <f t="shared" si="7"/>
+        <v>19.5</v>
+      </c>
+      <c r="N110">
         <f t="shared" si="8"/>
-        <v>19.5</v>
-      </c>
-      <c r="N110">
+        <v>4640.751999999995</v>
+      </c>
+      <c r="O110">
         <f t="shared" si="9"/>
-        <v>4640.751999999995</v>
-      </c>
-      <c r="O110">
-        <f t="shared" si="10"/>
         <v>0.72131147540983565</v>
       </c>
       <c r="P110" t="s">
@@ -25186,7 +26087,7 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.035891666666664</v>
       </c>
       <c r="B111">
@@ -25223,15 +26124,15 @@
         <v>0</v>
       </c>
       <c r="M111">
+        <f t="shared" si="7"/>
+        <v>19.5</v>
+      </c>
+      <c r="N111">
         <f t="shared" si="8"/>
-        <v>19.5</v>
-      </c>
-      <c r="N111">
+        <v>4701.20999999999</v>
+      </c>
+      <c r="O111">
         <f t="shared" si="9"/>
-        <v>4701.20999999999</v>
-      </c>
-      <c r="O111">
-        <f t="shared" si="10"/>
         <v>0.72131147540983565</v>
       </c>
       <c r="P111" t="s">
@@ -25240,7 +26141,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.052685555555556</v>
       </c>
       <c r="B112">
@@ -25277,15 +26178,15 @@
         <v>0</v>
       </c>
       <c r="M112">
+        <f t="shared" si="7"/>
+        <v>19.400000000000006</v>
+      </c>
+      <c r="N112">
         <f t="shared" si="8"/>
-        <v>19.400000000000006</v>
-      </c>
-      <c r="N112">
+        <v>4761.6679999999988</v>
+      </c>
+      <c r="O112">
         <f t="shared" si="9"/>
-        <v>4761.6679999999988</v>
-      </c>
-      <c r="O112">
-        <f t="shared" si="10"/>
         <v>0.72131147540983565</v>
       </c>
       <c r="P112" t="s">
@@ -25294,7 +26195,7 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.069479166666667</v>
       </c>
       <c r="B113">
@@ -25331,15 +26232,15 @@
         <v>0</v>
       </c>
       <c r="M113">
+        <f t="shared" si="7"/>
+        <v>19.399999999999991</v>
+      </c>
+      <c r="N113">
         <f t="shared" si="8"/>
-        <v>19.399999999999991</v>
-      </c>
-      <c r="N113">
+        <v>4822.1250000000009</v>
+      </c>
+      <c r="O113">
         <f t="shared" si="9"/>
-        <v>4822.1250000000009</v>
-      </c>
-      <c r="O113">
-        <f t="shared" si="10"/>
         <v>0.73770491803278793</v>
       </c>
       <c r="P113" t="s">
@@ -25348,7 +26249,7 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.086273055555555</v>
       </c>
       <c r="B114">
@@ -25385,15 +26286,15 @@
         <v>0</v>
       </c>
       <c r="M114">
+        <f t="shared" si="7"/>
+        <v>19.200000000000003</v>
+      </c>
+      <c r="N114">
         <f t="shared" si="8"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="N114">
+        <v>4882.5829999999969</v>
+      </c>
+      <c r="O114">
         <f t="shared" si="9"/>
-        <v>4882.5829999999969</v>
-      </c>
-      <c r="O114">
-        <f t="shared" si="10"/>
         <v>0.75409836065573776</v>
       </c>
       <c r="P114" t="s">
@@ -25402,7 +26303,7 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.103068055555553</v>
       </c>
       <c r="B115">
@@ -25439,15 +26340,15 @@
         <v>0</v>
       </c>
       <c r="M115">
+        <f t="shared" si="7"/>
+        <v>19.400000000000006</v>
+      </c>
+      <c r="N115">
         <f t="shared" si="8"/>
-        <v>19.400000000000006</v>
-      </c>
-      <c r="N115">
+        <v>4943.044999999991</v>
+      </c>
+      <c r="O115">
         <f t="shared" si="9"/>
-        <v>4943.044999999991</v>
-      </c>
-      <c r="O115">
-        <f t="shared" si="10"/>
         <v>0.75409836065573776</v>
       </c>
       <c r="P115" t="s">
@@ -25456,7 +26357,7 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.119861944444445</v>
       </c>
       <c r="B116">
@@ -25493,15 +26394,15 @@
         <v>0</v>
       </c>
       <c r="M116">
+        <f t="shared" si="7"/>
+        <v>19.299999999999997</v>
+      </c>
+      <c r="N116">
         <f t="shared" si="8"/>
-        <v>19.299999999999997</v>
-      </c>
-      <c r="N116">
+        <v>5003.5029999999988</v>
+      </c>
+      <c r="O116">
         <f t="shared" si="9"/>
-        <v>5003.5029999999988</v>
-      </c>
-      <c r="O116">
-        <f t="shared" si="10"/>
         <v>0.75409836065573776</v>
       </c>
       <c r="P116" t="s">
@@ -25510,7 +26411,7 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.136655833333332</v>
       </c>
       <c r="B117">
@@ -25547,15 +26448,15 @@
         <v>0</v>
       </c>
       <c r="M117">
+        <f t="shared" si="7"/>
+        <v>19.299999999999997</v>
+      </c>
+      <c r="N117">
         <f t="shared" si="8"/>
-        <v>19.299999999999997</v>
-      </c>
-      <c r="N117">
+        <v>5063.9609999999948</v>
+      </c>
+      <c r="O117">
         <f t="shared" si="9"/>
-        <v>5063.9609999999948</v>
-      </c>
-      <c r="O117">
-        <f t="shared" si="10"/>
         <v>0.75409836065573776</v>
       </c>
       <c r="P117" t="s">
@@ -25564,7 +26465,7 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.15344972222222</v>
       </c>
       <c r="B118">
@@ -25601,15 +26502,15 @@
         <v>0</v>
       </c>
       <c r="M118">
+        <f t="shared" si="7"/>
+        <v>19.200000000000003</v>
+      </c>
+      <c r="N118">
         <f t="shared" si="8"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="N118">
+        <v>5124.4189999999908</v>
+      </c>
+      <c r="O118">
         <f t="shared" si="9"/>
-        <v>5124.4189999999908</v>
-      </c>
-      <c r="O118">
-        <f t="shared" si="10"/>
         <v>0.7704918032786876</v>
       </c>
       <c r="P118" t="s">
@@ -25618,7 +26519,7 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.170243611111111</v>
       </c>
       <c r="B119">
@@ -25655,15 +26556,15 @@
         <v>0</v>
       </c>
       <c r="M119">
+        <f t="shared" si="7"/>
+        <v>19.200000000000003</v>
+      </c>
+      <c r="N119">
         <f t="shared" si="8"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="N119">
+        <v>5184.8769999999986</v>
+      </c>
+      <c r="O119">
         <f t="shared" si="9"/>
-        <v>5184.8769999999986</v>
-      </c>
-      <c r="O119">
-        <f t="shared" si="10"/>
         <v>0.75409836065573776</v>
       </c>
       <c r="P119" t="s">
@@ -25672,7 +26573,7 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.187037222222223</v>
       </c>
       <c r="B120">
@@ -25709,15 +26610,15 @@
         <v>0</v>
       </c>
       <c r="M120">
+        <f t="shared" si="7"/>
+        <v>19.100000000000009</v>
+      </c>
+      <c r="N120">
         <f t="shared" si="8"/>
-        <v>19.100000000000009</v>
-      </c>
-      <c r="N120">
+        <v>5245.3340000000007</v>
+      </c>
+      <c r="O120">
         <f t="shared" si="9"/>
-        <v>5245.3340000000007</v>
-      </c>
-      <c r="O120">
-        <f t="shared" si="10"/>
         <v>0.7704918032786876</v>
       </c>
       <c r="P120" t="s">
@@ -25726,7 +26627,7 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.203833055555556</v>
       </c>
       <c r="B121">
@@ -25763,15 +26664,15 @@
         <v>0</v>
       </c>
       <c r="M121">
+        <f t="shared" si="7"/>
+        <v>19.099999999999994</v>
+      </c>
+      <c r="N121">
         <f t="shared" si="8"/>
-        <v>19.099999999999994</v>
-      </c>
-      <c r="N121">
+        <v>5305.799</v>
+      </c>
+      <c r="O121">
         <f t="shared" si="9"/>
-        <v>5305.799</v>
-      </c>
-      <c r="O121">
-        <f t="shared" si="10"/>
         <v>0.78688524590163988</v>
       </c>
       <c r="P121" t="s">
@@ -25780,7 +26681,7 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.220626944444444</v>
       </c>
       <c r="B122">
@@ -25817,15 +26718,15 @@
         <v>0</v>
       </c>
       <c r="M122">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="N122">
         <f t="shared" si="8"/>
-        <v>19</v>
-      </c>
-      <c r="N122">
+        <v>5366.256999999996</v>
+      </c>
+      <c r="O122">
         <f t="shared" si="9"/>
-        <v>5366.256999999996</v>
-      </c>
-      <c r="O122">
-        <f t="shared" si="10"/>
         <v>0.78688524590163988</v>
       </c>
       <c r="P122" t="s">
@@ -25834,7 +26735,7 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.237420555555556</v>
       </c>
       <c r="B123">
@@ -25871,15 +26772,15 @@
         <v>0</v>
       </c>
       <c r="M123">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="N123">
         <f t="shared" si="8"/>
-        <v>19</v>
-      </c>
-      <c r="N123">
+        <v>5426.7139999999981</v>
+      </c>
+      <c r="O123">
         <f t="shared" si="9"/>
-        <v>5426.7139999999981</v>
-      </c>
-      <c r="O123">
-        <f t="shared" si="10"/>
         <v>0.78688524590163988</v>
       </c>
       <c r="P123" t="s">
@@ -25888,7 +26789,7 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.254214444444443</v>
       </c>
       <c r="B124">
@@ -25925,15 +26826,15 @@
         <v>0</v>
       </c>
       <c r="M124">
+        <f t="shared" si="7"/>
+        <v>19.099999999999994</v>
+      </c>
+      <c r="N124">
         <f t="shared" si="8"/>
-        <v>19.099999999999994</v>
-      </c>
-      <c r="N124">
+        <v>5487.1719999999941</v>
+      </c>
+      <c r="O124">
         <f t="shared" si="9"/>
-        <v>5487.1719999999941</v>
-      </c>
-      <c r="O124">
-        <f t="shared" si="10"/>
         <v>0.78688524590163988</v>
       </c>
       <c r="P124" t="s">
@@ -25942,7 +26843,7 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.271008055555555</v>
       </c>
       <c r="B125">
@@ -25979,15 +26880,15 @@
         <v>0</v>
       </c>
       <c r="M125">
+        <f t="shared" si="7"/>
+        <v>19.099999999999994</v>
+      </c>
+      <c r="N125">
         <f t="shared" si="8"/>
-        <v>19.099999999999994</v>
-      </c>
-      <c r="N125">
+        <v>5547.6289999999963</v>
+      </c>
+      <c r="O125">
         <f t="shared" si="9"/>
-        <v>5547.6289999999963</v>
-      </c>
-      <c r="O125">
-        <f t="shared" si="10"/>
         <v>0.78688524590163988</v>
       </c>
       <c r="P125" t="s">
@@ -25996,7 +26897,7 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.287801666666667</v>
       </c>
       <c r="B126">
@@ -26033,15 +26934,15 @@
         <v>0</v>
       </c>
       <c r="M126">
+        <f t="shared" si="7"/>
+        <v>19.099999999999994</v>
+      </c>
+      <c r="N126">
         <f t="shared" si="8"/>
-        <v>19.099999999999994</v>
-      </c>
-      <c r="N126">
+        <v>5608.0859999999984</v>
+      </c>
+      <c r="O126">
         <f t="shared" si="9"/>
-        <v>5608.0859999999984</v>
-      </c>
-      <c r="O126">
-        <f t="shared" si="10"/>
         <v>0.78688524590163988</v>
       </c>
       <c r="P126" t="s">
@@ -26050,7 +26951,7 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.304596666666665</v>
       </c>
       <c r="B127">
@@ -26087,15 +26988,15 @@
         <v>0</v>
       </c>
       <c r="M127">
+        <f t="shared" si="7"/>
+        <v>19.100000000000009</v>
+      </c>
+      <c r="N127">
         <f t="shared" si="8"/>
-        <v>19.100000000000009</v>
-      </c>
-      <c r="N127">
+        <v>5668.5479999999925</v>
+      </c>
+      <c r="O127">
         <f t="shared" si="9"/>
-        <v>5668.5479999999925</v>
-      </c>
-      <c r="O127">
-        <f t="shared" si="10"/>
         <v>0.80327868852458972</v>
       </c>
       <c r="P127" t="s">
@@ -26104,7 +27005,7 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.321390555555553</v>
       </c>
       <c r="B128">
@@ -26141,15 +27042,15 @@
         <v>0</v>
       </c>
       <c r="M128">
+        <f t="shared" si="7"/>
+        <v>19.100000000000009</v>
+      </c>
+      <c r="N128">
         <f t="shared" si="8"/>
-        <v>19.100000000000009</v>
-      </c>
-      <c r="N128">
+        <v>5729.0059999999885</v>
+      </c>
+      <c r="O128">
         <f t="shared" si="9"/>
-        <v>5729.0059999999885</v>
-      </c>
-      <c r="O128">
-        <f t="shared" si="10"/>
         <v>0.80327868852458972</v>
       </c>
       <c r="P128" t="s">
@@ -26158,7 +27059,7 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.338184166666665</v>
       </c>
       <c r="B129">
@@ -26195,15 +27096,15 @@
         <v>0</v>
       </c>
       <c r="M129">
+        <f t="shared" si="7"/>
+        <v>19.100000000000009</v>
+      </c>
+      <c r="N129">
         <f t="shared" si="8"/>
-        <v>19.100000000000009</v>
-      </c>
-      <c r="N129">
+        <v>5789.4629999999906</v>
+      </c>
+      <c r="O129">
         <f t="shared" si="9"/>
-        <v>5789.4629999999906</v>
-      </c>
-      <c r="O129">
-        <f t="shared" si="10"/>
         <v>0.80327868852458972</v>
       </c>
       <c r="P129" t="s">
@@ -26212,7 +27113,7 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.354978333333332</v>
       </c>
       <c r="B130">
@@ -26249,15 +27150,15 @@
         <v>0</v>
       </c>
       <c r="M130">
+        <f t="shared" si="7"/>
+        <v>19.200000000000003</v>
+      </c>
+      <c r="N130">
         <f t="shared" si="8"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="N130">
+        <v>5849.9219999999923</v>
+      </c>
+      <c r="O130">
         <f t="shared" si="9"/>
-        <v>5849.9219999999923</v>
-      </c>
-      <c r="O130">
-        <f t="shared" si="10"/>
         <v>0.80327868852458972</v>
       </c>
       <c r="P130" t="s">
@@ -26266,7 +27167,7 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.371771944444443</v>
       </c>
       <c r="B131">
@@ -26303,15 +27204,15 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <f t="shared" ref="M131:M194" si="12">G131-H131</f>
+        <f t="shared" ref="M131:M194" si="11">G131-H131</f>
         <v>19.099999999999994</v>
       </c>
       <c r="N131">
-        <f t="shared" ref="N131:N194" si="13">(A131-$Q$35)*3600</f>
+        <f t="shared" ref="N131:N194" si="12">(A131-$Q$35)*3600</f>
         <v>5910.3789999999944</v>
       </c>
       <c r="O131">
-        <f t="shared" ref="O131:O194" si="14">(H131-$R$35)/($S$35-$R$35)</f>
+        <f t="shared" ref="O131:O194" si="13">(H131-$R$35)/($S$35-$R$35)</f>
         <v>0.819672131147542</v>
       </c>
       <c r="P131" t="s">
@@ -26320,7 +27221,7 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132">
-        <f t="shared" ref="A132:A195" si="15">$A$2+(D132-$D$2)/3600</f>
+        <f t="shared" ref="A132:A195" si="14">$A$2+(D132-$D$2)/3600</f>
         <v>16.388565555555555</v>
       </c>
       <c r="B132">
@@ -26357,15 +27258,15 @@
         <v>0</v>
       </c>
       <c r="M132">
+        <f t="shared" si="11"/>
+        <v>19.099999999999994</v>
+      </c>
+      <c r="N132">
         <f t="shared" si="12"/>
-        <v>19.099999999999994</v>
-      </c>
-      <c r="N132">
+        <v>5970.8359999999975</v>
+      </c>
+      <c r="O132">
         <f t="shared" si="13"/>
-        <v>5970.8359999999975</v>
-      </c>
-      <c r="O132">
-        <f t="shared" si="14"/>
         <v>0.819672131147542</v>
       </c>
       <c r="P132" t="s">
@@ -26374,7 +27275,7 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.405359999999998</v>
       </c>
       <c r="B133">
@@ -26411,15 +27312,15 @@
         <v>0</v>
       </c>
       <c r="M133">
+        <f t="shared" si="11"/>
+        <v>19.099999999999994</v>
+      </c>
+      <c r="N133">
         <f t="shared" si="12"/>
-        <v>19.099999999999994</v>
-      </c>
-      <c r="N133">
+        <v>6031.2959999999921</v>
+      </c>
+      <c r="O133">
         <f t="shared" si="13"/>
-        <v>6031.2959999999921</v>
-      </c>
-      <c r="O133">
-        <f t="shared" si="14"/>
         <v>0.819672131147542</v>
       </c>
       <c r="P133" t="s">
@@ -26428,7 +27329,7 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.42215361111111</v>
       </c>
       <c r="B134">
@@ -26465,15 +27366,15 @@
         <v>0</v>
       </c>
       <c r="M134">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="N134">
         <f t="shared" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="N134">
+        <v>6091.7529999999942</v>
+      </c>
+      <c r="O134">
         <f t="shared" si="13"/>
-        <v>6091.7529999999942</v>
-      </c>
-      <c r="O134">
-        <f t="shared" si="14"/>
         <v>0.83606557377049184</v>
       </c>
       <c r="P134" t="s">
@@ -26482,7 +27383,7 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.438947499999998</v>
       </c>
       <c r="B135">
@@ -26519,15 +27420,15 @@
         <v>0</v>
       </c>
       <c r="M135">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="N135">
         <f t="shared" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="N135">
+        <v>6152.2109999999902</v>
+      </c>
+      <c r="O135">
         <f t="shared" si="13"/>
-        <v>6152.2109999999902</v>
-      </c>
-      <c r="O135">
-        <f t="shared" si="14"/>
         <v>0.83606557377049184</v>
       </c>
       <c r="P135" t="s">
@@ -26536,7 +27437,7 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.455741388888889</v>
       </c>
       <c r="B136">
@@ -26573,15 +27474,15 @@
         <v>0</v>
       </c>
       <c r="M136">
+        <f t="shared" si="11"/>
+        <v>19.099999999999994</v>
+      </c>
+      <c r="N136">
         <f t="shared" si="12"/>
-        <v>19.099999999999994</v>
-      </c>
-      <c r="N136">
+        <v>6212.6689999999981</v>
+      </c>
+      <c r="O136">
         <f t="shared" si="13"/>
-        <v>6212.6689999999981</v>
-      </c>
-      <c r="O136">
-        <f t="shared" si="14"/>
         <v>0.83606557377049184</v>
       </c>
       <c r="P136" t="s">
@@ -26590,7 +27491,7 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.472535833333332</v>
       </c>
       <c r="B137">
@@ -26627,15 +27528,15 @@
         <v>0</v>
       </c>
       <c r="M137">
+        <f t="shared" si="11"/>
+        <v>19.099999999999994</v>
+      </c>
+      <c r="N137">
         <f t="shared" si="12"/>
-        <v>19.099999999999994</v>
-      </c>
-      <c r="N137">
+        <v>6273.1289999999926</v>
+      </c>
+      <c r="O137">
         <f t="shared" si="13"/>
-        <v>6273.1289999999926</v>
-      </c>
-      <c r="O137">
-        <f t="shared" si="14"/>
         <v>0.83606557377049184</v>
       </c>
       <c r="P137" t="s">
@@ -26644,7 +27545,7 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.489329722222223</v>
       </c>
       <c r="B138">
@@ -26681,15 +27582,15 @@
         <v>0</v>
       </c>
       <c r="M138">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="N138">
         <f t="shared" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="N138">
+        <v>6333.5870000000014</v>
+      </c>
+      <c r="O138">
         <f t="shared" si="13"/>
-        <v>6333.5870000000014</v>
-      </c>
-      <c r="O138">
-        <f t="shared" si="14"/>
         <v>0.83606557377049184</v>
       </c>
       <c r="P138" t="s">
@@ -26698,7 +27599,7 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.506123333333331</v>
       </c>
       <c r="B139">
@@ -26735,15 +27636,15 @@
         <v>0</v>
       </c>
       <c r="M139">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="N139">
         <f t="shared" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="N139">
+        <v>6394.0439999999908</v>
+      </c>
+      <c r="O139">
         <f t="shared" si="13"/>
-        <v>6394.0439999999908</v>
-      </c>
-      <c r="O139">
-        <f t="shared" si="14"/>
         <v>0.85245901639344168</v>
       </c>
       <c r="P139" t="s">
@@ -26752,7 +27653,7 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.522917222222222</v>
       </c>
       <c r="B140">
@@ -26789,15 +27690,15 @@
         <v>0</v>
       </c>
       <c r="M140">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="N140">
         <f t="shared" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="N140">
+        <v>6454.5019999999995</v>
+      </c>
+      <c r="O140">
         <f t="shared" si="13"/>
-        <v>6454.5019999999995</v>
-      </c>
-      <c r="O140">
-        <f t="shared" si="14"/>
         <v>0.85245901639344168</v>
       </c>
       <c r="P140" t="s">
@@ -26806,7 +27707,7 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.539710833333334</v>
       </c>
       <c r="B141">
@@ -26843,15 +27744,15 @@
         <v>0</v>
       </c>
       <c r="M141">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="N141">
         <f t="shared" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="N141">
+        <v>6514.9590000000017</v>
+      </c>
+      <c r="O141">
         <f t="shared" si="13"/>
-        <v>6514.9590000000017</v>
-      </c>
-      <c r="O141">
-        <f t="shared" si="14"/>
         <v>0.86885245901639396</v>
       </c>
       <c r="P141" t="s">
@@ -26860,7 +27761,7 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.556504722222222</v>
       </c>
       <c r="B142">
@@ -26897,15 +27798,15 @@
         <v>0</v>
       </c>
       <c r="M142">
+        <f t="shared" si="11"/>
+        <v>19.100000000000009</v>
+      </c>
+      <c r="N142">
         <f t="shared" si="12"/>
-        <v>19.100000000000009</v>
-      </c>
-      <c r="N142">
+        <v>6575.4169999999976</v>
+      </c>
+      <c r="O142">
         <f t="shared" si="13"/>
-        <v>6575.4169999999976</v>
-      </c>
-      <c r="O142">
-        <f t="shared" si="14"/>
         <v>0.85245901639344168</v>
       </c>
       <c r="P142" t="s">
@@ -26914,7 +27815,7 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.573300277777776</v>
       </c>
       <c r="B143">
@@ -26951,15 +27852,15 @@
         <v>0</v>
       </c>
       <c r="M143">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="N143">
         <f t="shared" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="N143">
+        <v>6635.8809999999903</v>
+      </c>
+      <c r="O143">
         <f t="shared" si="13"/>
-        <v>6635.8809999999903</v>
-      </c>
-      <c r="O143">
-        <f t="shared" si="14"/>
         <v>0.86885245901639396</v>
       </c>
       <c r="P143" t="s">
@@ -26968,7 +27869,7 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.590094166666667</v>
       </c>
       <c r="B144">
@@ -27005,15 +27906,15 @@
         <v>0</v>
       </c>
       <c r="M144">
+        <f t="shared" si="11"/>
+        <v>18.899999999999991</v>
+      </c>
+      <c r="N144">
         <f t="shared" si="12"/>
-        <v>18.899999999999991</v>
-      </c>
-      <c r="N144">
+        <v>6696.338999999999</v>
+      </c>
+      <c r="O144">
         <f t="shared" si="13"/>
-        <v>6696.338999999999</v>
-      </c>
-      <c r="O144">
-        <f t="shared" si="14"/>
         <v>0.86885245901639396</v>
       </c>
       <c r="P144" t="s">
@@ -27022,7 +27923,7 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.606887777777779</v>
       </c>
       <c r="B145">
@@ -27059,15 +27960,15 @@
         <v>0</v>
       </c>
       <c r="M145">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="N145">
         <f t="shared" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="N145">
+        <v>6756.7960000000012</v>
+      </c>
+      <c r="O145">
         <f t="shared" si="13"/>
-        <v>6756.7960000000012</v>
-      </c>
-      <c r="O145">
-        <f t="shared" si="14"/>
         <v>0.86885245901639396</v>
       </c>
       <c r="P145" t="s">
@@ -27076,7 +27977,7 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.623682500000001</v>
       </c>
       <c r="B146">
@@ -27113,15 +28014,15 @@
         <v>0</v>
       </c>
       <c r="M146">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="N146">
         <f t="shared" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="N146">
+        <v>6817.2570000000023</v>
+      </c>
+      <c r="O146">
         <f t="shared" si="13"/>
-        <v>6817.2570000000023</v>
-      </c>
-      <c r="O146">
-        <f t="shared" si="14"/>
         <v>0.86885245901639396</v>
       </c>
       <c r="P146" t="s">
@@ -27130,7 +28031,7 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.640476111111109</v>
       </c>
       <c r="B147">
@@ -27167,15 +28068,15 @@
         <v>0</v>
       </c>
       <c r="M147">
+        <f t="shared" si="11"/>
+        <v>18.799999999999997</v>
+      </c>
+      <c r="N147">
         <f t="shared" si="12"/>
-        <v>18.799999999999997</v>
-      </c>
-      <c r="N147">
+        <v>6877.7139999999918</v>
+      </c>
+      <c r="O147">
         <f t="shared" si="13"/>
-        <v>6877.7139999999918</v>
-      </c>
-      <c r="O147">
-        <f t="shared" si="14"/>
         <v>0.8852459016393438</v>
       </c>
       <c r="P147" t="s">
@@ -27184,7 +28085,7 @@
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.657269722222221</v>
       </c>
       <c r="B148">
@@ -27221,15 +28122,15 @@
         <v>0</v>
       </c>
       <c r="M148">
+        <f t="shared" si="11"/>
+        <v>18.900000000000006</v>
+      </c>
+      <c r="N148">
         <f t="shared" si="12"/>
-        <v>18.900000000000006</v>
-      </c>
-      <c r="N148">
+        <v>6938.1709999999939</v>
+      </c>
+      <c r="O148">
         <f t="shared" si="13"/>
-        <v>6938.1709999999939</v>
-      </c>
-      <c r="O148">
-        <f t="shared" si="14"/>
         <v>0.8852459016393438</v>
       </c>
       <c r="P148" t="s">
@@ -27238,7 +28139,7 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.674064999999999</v>
       </c>
       <c r="B149">
@@ -27275,15 +28176,15 @@
         <v>0</v>
       </c>
       <c r="M149">
+        <f t="shared" si="11"/>
+        <v>18.900000000000006</v>
+      </c>
+      <c r="N149">
         <f t="shared" si="12"/>
-        <v>18.900000000000006</v>
-      </c>
-      <c r="N149">
+        <v>6998.6339999999946</v>
+      </c>
+      <c r="O149">
         <f t="shared" si="13"/>
-        <v>6998.6339999999946</v>
-      </c>
-      <c r="O149">
-        <f t="shared" si="14"/>
         <v>0.8852459016393438</v>
       </c>
       <c r="P149" t="s">
@@ -27292,7 +28193,7 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.690859166666666</v>
       </c>
       <c r="B150">
@@ -27329,15 +28230,15 @@
         <v>0</v>
       </c>
       <c r="M150">
+        <f t="shared" si="11"/>
+        <v>18.799999999999997</v>
+      </c>
+      <c r="N150">
         <f t="shared" si="12"/>
-        <v>18.799999999999997</v>
-      </c>
-      <c r="N150">
+        <v>7059.0929999999953</v>
+      </c>
+      <c r="O150">
         <f t="shared" si="13"/>
-        <v>7059.0929999999953</v>
-      </c>
-      <c r="O150">
-        <f t="shared" si="14"/>
         <v>0.8852459016393438</v>
       </c>
       <c r="P150" t="s">
@@ -27346,7 +28247,7 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.707652777777778</v>
       </c>
       <c r="B151">
@@ -27383,15 +28284,15 @@
         <v>0</v>
       </c>
       <c r="M151">
+        <f t="shared" si="11"/>
+        <v>18.799999999999997</v>
+      </c>
+      <c r="N151">
         <f t="shared" si="12"/>
-        <v>18.799999999999997</v>
-      </c>
-      <c r="N151">
+        <v>7119.5499999999984</v>
+      </c>
+      <c r="O151">
         <f t="shared" si="13"/>
-        <v>7119.5499999999984</v>
-      </c>
-      <c r="O151">
-        <f t="shared" si="14"/>
         <v>0.8852459016393438</v>
       </c>
       <c r="P151" t="s">
@@ -27400,7 +28301,7 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.724446944444445</v>
       </c>
       <c r="B152">
@@ -27437,15 +28338,15 @@
         <v>0</v>
       </c>
       <c r="M152">
+        <f t="shared" si="11"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="N152">
         <f t="shared" si="12"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="N152">
+        <v>7180.009</v>
+      </c>
+      <c r="O152">
         <f t="shared" si="13"/>
-        <v>7180.009</v>
-      </c>
-      <c r="O152">
-        <f t="shared" si="14"/>
         <v>0.8852459016393438</v>
       </c>
       <c r="P152" t="s">
@@ -27454,7 +28355,7 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.741240833333332</v>
       </c>
       <c r="B153">
@@ -27491,15 +28392,15 @@
         <v>0</v>
       </c>
       <c r="M153">
+        <f t="shared" si="11"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="N153">
         <f t="shared" si="12"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="N153">
+        <v>7240.4669999999951</v>
+      </c>
+      <c r="O153">
         <f t="shared" si="13"/>
-        <v>7240.4669999999951</v>
-      </c>
-      <c r="O153">
-        <f t="shared" si="14"/>
         <v>0.8852459016393438</v>
       </c>
       <c r="P153" t="s">
@@ -27508,7 +28409,7 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.758034444444444</v>
       </c>
       <c r="B154">
@@ -27545,15 +28446,15 @@
         <v>0</v>
       </c>
       <c r="M154">
+        <f t="shared" si="11"/>
+        <v>18.600000000000009</v>
+      </c>
+      <c r="N154">
         <f t="shared" si="12"/>
-        <v>18.600000000000009</v>
-      </c>
-      <c r="N154">
+        <v>7300.9239999999972</v>
+      </c>
+      <c r="O154">
         <f t="shared" si="13"/>
-        <v>7300.9239999999972</v>
-      </c>
-      <c r="O154">
-        <f t="shared" si="14"/>
         <v>0.8852459016393438</v>
       </c>
       <c r="P154" t="s">
@@ -27562,7 +28463,7 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.774831944444443</v>
       </c>
       <c r="B155">
@@ -27599,15 +28500,15 @@
         <v>0</v>
       </c>
       <c r="M155">
+        <f t="shared" si="11"/>
+        <v>18.5</v>
+      </c>
+      <c r="N155">
         <f t="shared" si="12"/>
-        <v>18.5</v>
-      </c>
-      <c r="N155">
+        <v>7361.394999999995</v>
+      </c>
+      <c r="O155">
         <f t="shared" si="13"/>
-        <v>7361.394999999995</v>
-      </c>
-      <c r="O155">
-        <f t="shared" si="14"/>
         <v>0.90163934426229608</v>
       </c>
       <c r="P155" t="s">
@@ -27616,7 +28517,7 @@
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.791625833333335</v>
       </c>
       <c r="B156">
@@ -27653,15 +28554,15 @@
         <v>0</v>
       </c>
       <c r="M156">
+        <f t="shared" si="11"/>
+        <v>18.5</v>
+      </c>
+      <c r="N156">
         <f t="shared" si="12"/>
-        <v>18.5</v>
-      </c>
-      <c r="N156">
+        <v>7421.8530000000028</v>
+      </c>
+      <c r="O156">
         <f t="shared" si="13"/>
-        <v>7421.8530000000028</v>
-      </c>
-      <c r="O156">
-        <f t="shared" si="14"/>
         <v>0.90163934426229608</v>
       </c>
       <c r="P156" t="s">
@@ -27670,7 +28571,7 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.808419166666667</v>
       </c>
       <c r="B157">
@@ -27707,15 +28608,15 @@
         <v>0</v>
       </c>
       <c r="M157">
+        <f t="shared" si="11"/>
+        <v>18.5</v>
+      </c>
+      <c r="N157">
         <f t="shared" si="12"/>
-        <v>18.5</v>
-      </c>
-      <c r="N157">
+        <v>7482.3089999999993</v>
+      </c>
+      <c r="O157">
         <f t="shared" si="13"/>
-        <v>7482.3089999999993</v>
-      </c>
-      <c r="O157">
-        <f t="shared" si="14"/>
         <v>0.90163934426229608</v>
       </c>
       <c r="P157">
@@ -27724,7 +28625,7 @@
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.825214166666665</v>
       </c>
       <c r="B158">
@@ -27761,15 +28662,15 @@
         <v>0</v>
       </c>
       <c r="M158">
+        <f t="shared" si="11"/>
+        <v>18.299999999999997</v>
+      </c>
+      <c r="N158">
         <f t="shared" si="12"/>
-        <v>18.299999999999997</v>
-      </c>
-      <c r="N158">
+        <v>7542.7709999999934</v>
+      </c>
+      <c r="O158">
         <f t="shared" si="13"/>
-        <v>7542.7709999999934</v>
-      </c>
-      <c r="O158">
-        <f t="shared" si="14"/>
         <v>0.91803278688524592</v>
       </c>
       <c r="P158" t="s">
@@ -27778,7 +28679,7 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.842008055555556</v>
       </c>
       <c r="B159">
@@ -27815,15 +28716,15 @@
         <v>0</v>
       </c>
       <c r="M159">
+        <f t="shared" si="11"/>
+        <v>18.200000000000003</v>
+      </c>
+      <c r="N159">
         <f t="shared" si="12"/>
-        <v>18.200000000000003</v>
-      </c>
-      <c r="N159">
+        <v>7603.2290000000021</v>
+      </c>
+      <c r="O159">
         <f t="shared" si="13"/>
-        <v>7603.2290000000021</v>
-      </c>
-      <c r="O159">
-        <f t="shared" si="14"/>
         <v>0.91803278688524592</v>
       </c>
       <c r="P159" t="s">
@@ -27832,7 +28733,7 @@
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.858801666666665</v>
       </c>
       <c r="B160">
@@ -27869,15 +28770,15 @@
         <v>0</v>
       </c>
       <c r="M160">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="N160">
         <f t="shared" si="12"/>
-        <v>18</v>
-      </c>
-      <c r="N160">
+        <v>7663.6859999999915</v>
+      </c>
+      <c r="O160">
         <f t="shared" si="13"/>
-        <v>7663.6859999999915</v>
-      </c>
-      <c r="O160">
-        <f t="shared" si="14"/>
         <v>0.91803278688524592</v>
       </c>
       <c r="P160" t="s">
@@ -27886,7 +28787,7 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.875597222222222</v>
       </c>
       <c r="B161">
@@ -27923,15 +28824,15 @@
         <v>0</v>
       </c>
       <c r="M161">
+        <f t="shared" si="11"/>
+        <v>18.200000000000003</v>
+      </c>
+      <c r="N161">
         <f t="shared" si="12"/>
-        <v>18.200000000000003</v>
-      </c>
-      <c r="N161">
+        <v>7724.1499999999978</v>
+      </c>
+      <c r="O161">
         <f t="shared" si="13"/>
-        <v>7724.1499999999978</v>
-      </c>
-      <c r="O161">
-        <f t="shared" si="14"/>
         <v>0.91803278688524592</v>
       </c>
       <c r="P161" t="s">
@@ -27940,7 +28841,7 @@
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.892390833333334</v>
       </c>
       <c r="B162">
@@ -27977,15 +28878,15 @@
         <v>0</v>
       </c>
       <c r="M162">
+        <f t="shared" si="11"/>
+        <v>17.900000000000006</v>
+      </c>
+      <c r="N162">
         <f t="shared" si="12"/>
-        <v>17.900000000000006</v>
-      </c>
-      <c r="N162">
+        <v>7784.607</v>
+      </c>
+      <c r="O162">
         <f t="shared" si="13"/>
-        <v>7784.607</v>
-      </c>
-      <c r="O162">
-        <f t="shared" si="14"/>
         <v>0.91803278688524592</v>
       </c>
       <c r="P162" t="s">
@@ -27994,7 +28895,7 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.909184722222221</v>
       </c>
       <c r="B163">
@@ -28031,15 +28932,15 @@
         <v>0</v>
       </c>
       <c r="M163">
+        <f t="shared" si="11"/>
+        <v>17.799999999999997</v>
+      </c>
+      <c r="N163">
         <f t="shared" si="12"/>
-        <v>17.799999999999997</v>
-      </c>
-      <c r="N163">
+        <v>7845.0649999999951</v>
+      </c>
+      <c r="O163">
         <f t="shared" si="13"/>
-        <v>7845.0649999999951</v>
-      </c>
-      <c r="O163">
-        <f t="shared" si="14"/>
         <v>0.91803278688524592</v>
       </c>
       <c r="P163" t="s">
@@ -28048,7 +28949,7 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.925980277777779</v>
       </c>
       <c r="B164">
@@ -28085,15 +28986,15 @@
         <v>0</v>
       </c>
       <c r="M164">
+        <f t="shared" si="11"/>
+        <v>17.700000000000003</v>
+      </c>
+      <c r="N164">
         <f t="shared" si="12"/>
-        <v>17.700000000000003</v>
-      </c>
-      <c r="N164">
+        <v>7905.5290000000014</v>
+      </c>
+      <c r="O164">
         <f t="shared" si="13"/>
-        <v>7905.5290000000014</v>
-      </c>
-      <c r="O164">
-        <f t="shared" si="14"/>
         <v>0.93442622950819576</v>
       </c>
       <c r="P164" t="s">
@@ -28102,7 +29003,7 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.942773888888887</v>
       </c>
       <c r="B165">
@@ -28139,15 +29040,15 @@
         <v>0</v>
       </c>
       <c r="M165">
+        <f t="shared" si="11"/>
+        <v>17.600000000000009</v>
+      </c>
+      <c r="N165">
         <f t="shared" si="12"/>
-        <v>17.600000000000009</v>
-      </c>
-      <c r="N165">
+        <v>7965.9859999999908</v>
+      </c>
+      <c r="O165">
         <f t="shared" si="13"/>
-        <v>7965.9859999999908</v>
-      </c>
-      <c r="O165">
-        <f t="shared" si="14"/>
         <v>0.93442622950819576</v>
       </c>
       <c r="P165" t="s">
@@ -28156,7 +29057,7 @@
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.959567777777778</v>
       </c>
       <c r="B166">
@@ -28193,15 +29094,15 @@
         <v>0</v>
       </c>
       <c r="M166">
+        <f t="shared" si="11"/>
+        <v>17.5</v>
+      </c>
+      <c r="N166">
         <f t="shared" si="12"/>
-        <v>17.5</v>
-      </c>
-      <c r="N166">
+        <v>8026.4439999999995</v>
+      </c>
+      <c r="O166">
         <f t="shared" si="13"/>
-        <v>8026.4439999999995</v>
-      </c>
-      <c r="O166">
-        <f t="shared" si="14"/>
         <v>0.93442622950819576</v>
       </c>
       <c r="P166" t="s">
@@ -28210,7 +29111,7 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.976361666666666</v>
       </c>
       <c r="B167">
@@ -28247,15 +29148,15 @@
         <v>0</v>
       </c>
       <c r="M167">
+        <f t="shared" si="11"/>
+        <v>17.5</v>
+      </c>
+      <c r="N167">
         <f t="shared" si="12"/>
-        <v>17.5</v>
-      </c>
-      <c r="N167">
+        <v>8086.9019999999946</v>
+      </c>
+      <c r="O167">
         <f t="shared" si="13"/>
-        <v>8086.9019999999946</v>
-      </c>
-      <c r="O167">
-        <f t="shared" si="14"/>
         <v>0.93442622950819576</v>
       </c>
       <c r="P167" t="s">
@@ -28264,7 +29165,7 @@
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16.993155277777777</v>
       </c>
       <c r="B168">
@@ -28301,15 +29202,15 @@
         <v>0</v>
       </c>
       <c r="M168">
+        <f t="shared" si="11"/>
+        <v>17.5</v>
+      </c>
+      <c r="N168">
         <f t="shared" si="12"/>
-        <v>17.5</v>
-      </c>
-      <c r="N168">
+        <v>8147.3589999999976</v>
+      </c>
+      <c r="O168">
         <f t="shared" si="13"/>
-        <v>8147.3589999999976</v>
-      </c>
-      <c r="O168">
-        <f t="shared" si="14"/>
         <v>0.93442622950819576</v>
       </c>
       <c r="P168" t="s">
@@ -28318,7 +29219,7 @@
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.009949166666665</v>
       </c>
       <c r="B169">
@@ -28355,15 +29256,15 @@
         <v>0</v>
       </c>
       <c r="M169">
+        <f t="shared" si="11"/>
+        <v>17.400000000000006</v>
+      </c>
+      <c r="N169">
         <f t="shared" si="12"/>
-        <v>17.400000000000006</v>
-      </c>
-      <c r="N169">
+        <v>8207.8169999999936</v>
+      </c>
+      <c r="O169">
         <f t="shared" si="13"/>
-        <v>8207.8169999999936</v>
-      </c>
-      <c r="O169">
-        <f t="shared" si="14"/>
         <v>0.93442622950819576</v>
       </c>
       <c r="P169" t="s">
@@ -28372,7 +29273,7 @@
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.026743611111112</v>
       </c>
       <c r="B170">
@@ -28409,15 +29310,15 @@
         <v>0</v>
       </c>
       <c r="M170">
+        <f t="shared" si="11"/>
+        <v>17.299999999999997</v>
+      </c>
+      <c r="N170">
         <f t="shared" si="12"/>
-        <v>17.299999999999997</v>
-      </c>
-      <c r="N170">
+        <v>8268.277</v>
+      </c>
+      <c r="O170">
         <f t="shared" si="13"/>
-        <v>8268.277</v>
-      </c>
-      <c r="O170">
-        <f t="shared" si="14"/>
         <v>0.95081967213114804</v>
       </c>
       <c r="P170" t="s">
@@ -28426,7 +29327,7 @@
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.04353722222222</v>
       </c>
       <c r="B171">
@@ -28463,15 +29364,15 @@
         <v>0</v>
       </c>
       <c r="M171">
+        <f t="shared" si="11"/>
+        <v>17.200000000000003</v>
+      </c>
+      <c r="N171">
         <f t="shared" si="12"/>
-        <v>17.200000000000003</v>
-      </c>
-      <c r="N171">
+        <v>8328.7339999999895</v>
+      </c>
+      <c r="O171">
         <f t="shared" si="13"/>
-        <v>8328.7339999999895</v>
-      </c>
-      <c r="O171">
-        <f t="shared" si="14"/>
         <v>0.95081967213114804</v>
       </c>
       <c r="P171" t="s">
@@ -28480,7 +29381,7 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.060331111111111</v>
       </c>
       <c r="B172">
@@ -28517,15 +29418,15 @@
         <v>0</v>
       </c>
       <c r="M172">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="N172">
         <f t="shared" si="12"/>
-        <v>17</v>
-      </c>
-      <c r="N172">
+        <v>8389.1919999999991</v>
+      </c>
+      <c r="O172">
         <f t="shared" si="13"/>
-        <v>8389.1919999999991</v>
-      </c>
-      <c r="O172">
-        <f t="shared" si="14"/>
         <v>0.95081967213114804</v>
       </c>
       <c r="P172" t="s">
@@ -28534,7 +29435,7 @@
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.077126666666665</v>
       </c>
       <c r="B173">
@@ -28571,15 +29472,15 @@
         <v>0</v>
       </c>
       <c r="M173">
+        <f t="shared" si="11"/>
+        <v>16.899999999999991</v>
+      </c>
+      <c r="N173">
         <f t="shared" si="12"/>
-        <v>16.899999999999991</v>
-      </c>
-      <c r="N173">
+        <v>8449.6559999999918</v>
+      </c>
+      <c r="O173">
         <f t="shared" si="13"/>
-        <v>8449.6559999999918</v>
-      </c>
-      <c r="O173">
-        <f t="shared" si="14"/>
         <v>0.95081967213114804</v>
       </c>
       <c r="P173" t="s">
@@ -28588,7 +29489,7 @@
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.093920277777777</v>
       </c>
       <c r="B174">
@@ -28625,15 +29526,15 @@
         <v>0</v>
       </c>
       <c r="M174">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="N174">
         <f t="shared" si="12"/>
-        <v>17</v>
-      </c>
-      <c r="N174">
+        <v>8510.1129999999939</v>
+      </c>
+      <c r="O174">
         <f t="shared" si="13"/>
-        <v>8510.1129999999939</v>
-      </c>
-      <c r="O174">
-        <f t="shared" si="14"/>
         <v>0.95081967213114804</v>
       </c>
       <c r="P174" t="s">
@@ -28642,7 +29543,7 @@
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.110714166666668</v>
       </c>
       <c r="B175">
@@ -28679,15 +29580,15 @@
         <v>0</v>
       </c>
       <c r="M175">
+        <f t="shared" si="11"/>
+        <v>16.899999999999991</v>
+      </c>
+      <c r="N175">
         <f t="shared" si="12"/>
-        <v>16.899999999999991</v>
-      </c>
-      <c r="N175">
+        <v>8570.5710000000017</v>
+      </c>
+      <c r="O175">
         <f t="shared" si="13"/>
-        <v>8570.5710000000017</v>
-      </c>
-      <c r="O175">
-        <f t="shared" si="14"/>
         <v>0.95081967213114804</v>
       </c>
       <c r="P175" t="s">
@@ -28696,7 +29597,7 @@
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.127507777777776</v>
       </c>
       <c r="B176">
@@ -28733,15 +29634,15 @@
         <v>0</v>
       </c>
       <c r="M176">
+        <f t="shared" si="11"/>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="N176">
         <f t="shared" si="12"/>
-        <v>16.799999999999997</v>
-      </c>
-      <c r="N176">
+        <v>8631.0279999999912</v>
+      </c>
+      <c r="O176">
         <f t="shared" si="13"/>
-        <v>8631.0279999999912</v>
-      </c>
-      <c r="O176">
-        <f t="shared" si="14"/>
         <v>0.95081967213114804</v>
       </c>
       <c r="P176" t="s">
@@ -28750,7 +29651,7 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.144301666666667</v>
       </c>
       <c r="B177">
@@ -28787,15 +29688,15 @@
         <v>0</v>
       </c>
       <c r="M177">
+        <f t="shared" si="11"/>
+        <v>16.599999999999994</v>
+      </c>
+      <c r="N177">
         <f t="shared" si="12"/>
-        <v>16.599999999999994</v>
-      </c>
-      <c r="N177">
+        <v>8691.4860000000008</v>
+      </c>
+      <c r="O177">
         <f t="shared" si="13"/>
-        <v>8691.4860000000008</v>
-      </c>
-      <c r="O177">
-        <f t="shared" si="14"/>
         <v>0.95081967213114804</v>
       </c>
       <c r="P177" t="s">
@@ -28804,7 +29705,7 @@
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.161095555555555</v>
       </c>
       <c r="B178">
@@ -28841,15 +29742,15 @@
         <v>0</v>
       </c>
       <c r="M178">
+        <f t="shared" si="11"/>
+        <v>16.600000000000009</v>
+      </c>
+      <c r="N178">
         <f t="shared" si="12"/>
-        <v>16.600000000000009</v>
-      </c>
-      <c r="N178">
+        <v>8751.9439999999959</v>
+      </c>
+      <c r="O178">
         <f t="shared" si="13"/>
-        <v>8751.9439999999959</v>
-      </c>
-      <c r="O178">
-        <f t="shared" si="14"/>
         <v>0.96721311475409788</v>
       </c>
       <c r="P178" t="s">
@@ -28858,7 +29759,7 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.177889722222222</v>
       </c>
       <c r="B179">
@@ -28895,15 +29796,15 @@
         <v>0</v>
       </c>
       <c r="M179">
+        <f t="shared" si="11"/>
+        <v>16.5</v>
+      </c>
+      <c r="N179">
         <f t="shared" si="12"/>
-        <v>16.5</v>
-      </c>
-      <c r="N179">
+        <v>8812.4029999999984</v>
+      </c>
+      <c r="O179">
         <f t="shared" si="13"/>
-        <v>8812.4029999999984</v>
-      </c>
-      <c r="O179">
-        <f t="shared" si="14"/>
         <v>0.96721311475409788</v>
       </c>
       <c r="P179" t="s">
@@ -28912,7 +29813,7 @@
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.19468361111111</v>
       </c>
       <c r="B180">
@@ -28949,15 +29850,15 @@
         <v>0</v>
       </c>
       <c r="M180">
+        <f t="shared" si="11"/>
+        <v>16.400000000000006</v>
+      </c>
+      <c r="N180">
         <f t="shared" si="12"/>
-        <v>16.400000000000006</v>
-      </c>
-      <c r="N180">
+        <v>8872.8609999999935</v>
+      </c>
+      <c r="O180">
         <f t="shared" si="13"/>
-        <v>8872.8609999999935</v>
-      </c>
-      <c r="O180">
-        <f t="shared" si="14"/>
         <v>0.96721311475409788</v>
       </c>
       <c r="P180" t="s">
@@ -28966,7 +29867,7 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.211477500000001</v>
       </c>
       <c r="B181">
@@ -29003,15 +29904,15 @@
         <v>0</v>
       </c>
       <c r="M181">
+        <f t="shared" si="11"/>
+        <v>16.400000000000006</v>
+      </c>
+      <c r="N181">
         <f t="shared" si="12"/>
-        <v>16.400000000000006</v>
-      </c>
-      <c r="N181">
+        <v>8933.3190000000013</v>
+      </c>
+      <c r="O181">
         <f t="shared" si="13"/>
-        <v>8933.3190000000013</v>
-      </c>
-      <c r="O181">
-        <f t="shared" si="14"/>
         <v>0.96721311475409788</v>
       </c>
       <c r="P181" t="s">
@@ -29020,7 +29921,7 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.228273055555555</v>
       </c>
       <c r="B182">
@@ -29057,15 +29958,15 @@
         <v>0</v>
       </c>
       <c r="M182">
+        <f t="shared" si="11"/>
+        <v>16.299999999999997</v>
+      </c>
+      <c r="N182">
         <f t="shared" si="12"/>
-        <v>16.299999999999997</v>
-      </c>
-      <c r="N182">
+        <v>8993.782999999994</v>
+      </c>
+      <c r="O182">
         <f t="shared" si="13"/>
-        <v>8993.782999999994</v>
-      </c>
-      <c r="O182">
-        <f t="shared" si="14"/>
         <v>0.96721311475409788</v>
       </c>
       <c r="P182" t="s">
@@ -29074,7 +29975,7 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.245066666666666</v>
       </c>
       <c r="B183">
@@ -29111,15 +30012,15 @@
         <v>0</v>
       </c>
       <c r="M183">
+        <f t="shared" si="11"/>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="N183">
         <f t="shared" si="12"/>
-        <v>16.200000000000003</v>
-      </c>
-      <c r="N183">
+        <v>9054.239999999998</v>
+      </c>
+      <c r="O183">
         <f t="shared" si="13"/>
-        <v>9054.239999999998</v>
-      </c>
-      <c r="O183">
-        <f t="shared" si="14"/>
         <v>0.96721311475409788</v>
       </c>
       <c r="P183" t="s">
@@ -29128,7 +30029,7 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.261860555555554</v>
       </c>
       <c r="B184">
@@ -29165,15 +30066,15 @@
         <v>0</v>
       </c>
       <c r="M184">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="N184">
         <f t="shared" si="12"/>
-        <v>16</v>
-      </c>
-      <c r="N184">
+        <v>9114.697999999993</v>
+      </c>
+      <c r="O184">
         <f t="shared" si="13"/>
-        <v>9114.697999999993</v>
-      </c>
-      <c r="O184">
-        <f t="shared" si="14"/>
         <v>0.96721311475409788</v>
       </c>
       <c r="P184" t="s">
@@ -29182,7 +30083,7 @@
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.278656944444442</v>
       </c>
       <c r="B185">
@@ -29219,15 +30120,15 @@
         <v>0</v>
       </c>
       <c r="M185">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="N185">
         <f t="shared" si="12"/>
-        <v>16</v>
-      </c>
-      <c r="N185">
+        <v>9175.1649999999918</v>
+      </c>
+      <c r="O185">
         <f t="shared" si="13"/>
-        <v>9175.1649999999918</v>
-      </c>
-      <c r="O185">
-        <f t="shared" si="14"/>
         <v>0.96721311475409788</v>
       </c>
       <c r="P185" t="s">
@@ -29236,7 +30137,7 @@
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.295450833333334</v>
       </c>
       <c r="B186">
@@ -29273,15 +30174,15 @@
         <v>0</v>
       </c>
       <c r="M186">
+        <f t="shared" si="11"/>
+        <v>15.299999999999997</v>
+      </c>
+      <c r="N186">
         <f t="shared" si="12"/>
-        <v>15.299999999999997</v>
-      </c>
-      <c r="N186">
+        <v>9235.6229999999996</v>
+      </c>
+      <c r="O186">
         <f t="shared" si="13"/>
-        <v>9235.6229999999996</v>
-      </c>
-      <c r="O186">
-        <f t="shared" si="14"/>
         <v>1.0819672131147542</v>
       </c>
       <c r="P186" t="s">
@@ -29290,7 +30191,7 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.312244444444445</v>
       </c>
       <c r="B187">
@@ -29327,15 +30228,15 @@
         <v>0</v>
       </c>
       <c r="M187">
+        <f t="shared" si="11"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="N187">
         <f t="shared" si="12"/>
-        <v>11.200000000000003</v>
-      </c>
-      <c r="N187">
+        <v>9296.0800000000017</v>
+      </c>
+      <c r="O187">
         <f t="shared" si="13"/>
-        <v>9296.0800000000017</v>
-      </c>
-      <c r="O187">
-        <f t="shared" si="14"/>
         <v>1.7377049180327868</v>
       </c>
       <c r="P187" t="s">
@@ -29344,7 +30245,7 @@
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.329038333333333</v>
       </c>
       <c r="B188">
@@ -29381,15 +30282,15 @@
         <v>0</v>
       </c>
       <c r="M188">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="N188">
         <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="N188">
+        <v>9356.5379999999968</v>
+      </c>
+      <c r="O188">
         <f t="shared" si="13"/>
-        <v>9356.5379999999968</v>
-      </c>
-      <c r="O188">
-        <f t="shared" si="14"/>
         <v>1.7377049180327868</v>
       </c>
       <c r="P188" t="s">
@@ -29398,7 +30299,7 @@
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.345831944444445</v>
       </c>
       <c r="B189">
@@ -29435,15 +30336,15 @@
         <v>0</v>
       </c>
       <c r="M189">
+        <f t="shared" si="11"/>
+        <v>11.299999999999997</v>
+      </c>
+      <c r="N189">
         <f t="shared" si="12"/>
-        <v>11.299999999999997</v>
-      </c>
-      <c r="N189">
+        <v>9416.9950000000008</v>
+      </c>
+      <c r="O189">
         <f t="shared" si="13"/>
-        <v>9416.9950000000008</v>
-      </c>
-      <c r="O189">
-        <f t="shared" si="14"/>
         <v>1.6885245901639347</v>
       </c>
       <c r="P189" t="s">
@@ -29452,7 +30353,7 @@
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.362777777777776</v>
       </c>
       <c r="B190">
@@ -29489,15 +30390,15 @@
         <v>0</v>
       </c>
       <c r="M190">
+        <f t="shared" si="11"/>
+        <v>10.900000000000006</v>
+      </c>
+      <c r="N190">
         <f t="shared" si="12"/>
-        <v>10.900000000000006</v>
-      </c>
-      <c r="N190">
+        <v>9477.9999999999909</v>
+      </c>
+      <c r="O190">
         <f t="shared" si="13"/>
-        <v>9477.9999999999909</v>
-      </c>
-      <c r="O190">
-        <f t="shared" si="14"/>
         <v>1.7540983606557365</v>
       </c>
       <c r="P190" t="s">
@@ -29506,7 +30407,7 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.379571666666667</v>
       </c>
       <c r="B191">
@@ -29543,15 +30444,15 @@
         <v>0</v>
       </c>
       <c r="M191">
+        <f t="shared" si="11"/>
+        <v>11.299999999999997</v>
+      </c>
+      <c r="N191">
         <f t="shared" si="12"/>
-        <v>11.299999999999997</v>
-      </c>
-      <c r="N191">
+        <v>9538.4580000000005</v>
+      </c>
+      <c r="O191">
         <f t="shared" si="13"/>
-        <v>9538.4580000000005</v>
-      </c>
-      <c r="O191">
-        <f t="shared" si="14"/>
         <v>1.6885245901639347</v>
       </c>
       <c r="P191" t="s">
@@ -29560,7 +30461,7 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.396365555555555</v>
       </c>
       <c r="B192">
@@ -29597,15 +30498,15 @@
         <v>0</v>
       </c>
       <c r="M192">
+        <f t="shared" si="11"/>
+        <v>14.700000000000003</v>
+      </c>
+      <c r="N192">
         <f t="shared" si="12"/>
-        <v>14.700000000000003</v>
-      </c>
-      <c r="N192">
+        <v>9598.9159999999956</v>
+      </c>
+      <c r="O192">
         <f t="shared" si="13"/>
-        <v>9598.9159999999956</v>
-      </c>
-      <c r="O192">
-        <f t="shared" si="14"/>
         <v>1.131147540983606</v>
       </c>
       <c r="P192" t="s">
@@ -29614,7 +30515,7 @@
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.413159166666667</v>
       </c>
       <c r="B193">
@@ -29651,15 +30552,15 @@
         <v>0</v>
       </c>
       <c r="M193">
+        <f t="shared" si="11"/>
+        <v>14.699999999999989</v>
+      </c>
+      <c r="N193">
         <f t="shared" si="12"/>
-        <v>14.699999999999989</v>
-      </c>
-      <c r="N193">
+        <v>9659.3729999999978</v>
+      </c>
+      <c r="O193">
         <f t="shared" si="13"/>
-        <v>9659.3729999999978</v>
-      </c>
-      <c r="O193">
-        <f t="shared" si="14"/>
         <v>1.1475409836065582</v>
       </c>
       <c r="P193" t="s">
@@ -29668,7 +30569,7 @@
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.429955</v>
       </c>
       <c r="B194">
@@ -29705,15 +30606,15 @@
         <v>0</v>
       </c>
       <c r="M194">
+        <f t="shared" si="11"/>
+        <v>14.799999999999997</v>
+      </c>
+      <c r="N194">
         <f t="shared" si="12"/>
-        <v>14.799999999999997</v>
-      </c>
-      <c r="N194">
+        <v>9719.8379999999979</v>
+      </c>
+      <c r="O194">
         <f t="shared" si="13"/>
-        <v>9719.8379999999979</v>
-      </c>
-      <c r="O194">
-        <f t="shared" si="14"/>
         <v>1.1475409836065582</v>
       </c>
       <c r="P194" t="s">
@@ -29722,7 +30623,7 @@
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.446748611111111</v>
       </c>
       <c r="B195">
@@ -29759,15 +30660,15 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <f t="shared" ref="M195:M225" si="16">G195-H195</f>
+        <f t="shared" ref="M195:M225" si="15">G195-H195</f>
         <v>14.899999999999991</v>
       </c>
       <c r="N195">
-        <f t="shared" ref="N195:N225" si="17">(A195-$Q$35)*3600</f>
+        <f t="shared" ref="N195:N225" si="16">(A195-$Q$35)*3600</f>
         <v>9780.2950000000001</v>
       </c>
       <c r="O195">
-        <f t="shared" ref="O195:O225" si="18">(H195-$R$35)/($S$35-$R$35)</f>
+        <f t="shared" ref="O195:O225" si="17">(H195-$R$35)/($S$35-$R$35)</f>
         <v>1.1475409836065582</v>
       </c>
       <c r="P195" t="s">
@@ -29776,7 +30677,7 @@
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196">
-        <f t="shared" ref="A196:A225" si="19">$A$2+(D196-$D$2)/3600</f>
+        <f t="shared" ref="A196:A225" si="18">$A$2+(D196-$D$2)/3600</f>
         <v>17.463542777777779</v>
       </c>
       <c r="B196">
@@ -29813,15 +30714,15 @@
         <v>0</v>
       </c>
       <c r="M196">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="N196">
         <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="N196">
+        <v>9840.7540000000008</v>
+      </c>
+      <c r="O196">
         <f t="shared" si="17"/>
-        <v>9840.7540000000008</v>
-      </c>
-      <c r="O196">
-        <f t="shared" si="18"/>
         <v>1.131147540983606</v>
       </c>
       <c r="P196" t="s">
@@ -29830,7 +30731,7 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.480336388888887</v>
       </c>
       <c r="B197">
@@ -29867,15 +30768,15 @@
         <v>0</v>
       </c>
       <c r="M197">
+        <f t="shared" si="15"/>
+        <v>15.200000000000003</v>
+      </c>
+      <c r="N197">
         <f t="shared" si="16"/>
-        <v>15.200000000000003</v>
-      </c>
-      <c r="N197">
+        <v>9901.2109999999902</v>
+      </c>
+      <c r="O197">
         <f t="shared" si="17"/>
-        <v>9901.2109999999902</v>
-      </c>
-      <c r="O197">
-        <f t="shared" si="18"/>
         <v>1.131147540983606</v>
       </c>
       <c r="P197" t="s">
@@ -29884,7 +30785,7 @@
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.497130277777778</v>
       </c>
       <c r="B198">
@@ -29921,15 +30822,15 @@
         <v>0</v>
       </c>
       <c r="M198">
+        <f t="shared" si="15"/>
+        <v>15.299999999999997</v>
+      </c>
+      <c r="N198">
         <f t="shared" si="16"/>
-        <v>15.299999999999997</v>
-      </c>
-      <c r="N198">
+        <v>9961.6689999999999</v>
+      </c>
+      <c r="O198">
         <f t="shared" si="17"/>
-        <v>9961.6689999999999</v>
-      </c>
-      <c r="O198">
-        <f t="shared" si="18"/>
         <v>1.131147540983606</v>
       </c>
       <c r="P198" t="s">
@@ -29938,7 +30839,7 @@
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.51392388888889</v>
       </c>
       <c r="B199">
@@ -29975,15 +30876,15 @@
         <v>0</v>
       </c>
       <c r="M199">
+        <f t="shared" si="15"/>
+        <v>15.299999999999997</v>
+      </c>
+      <c r="N199">
         <f t="shared" si="16"/>
-        <v>15.299999999999997</v>
-      </c>
-      <c r="N199">
+        <v>10022.126000000002</v>
+      </c>
+      <c r="O199">
         <f t="shared" si="17"/>
-        <v>10022.126000000002</v>
-      </c>
-      <c r="O199">
-        <f t="shared" si="18"/>
         <v>1.131147540983606</v>
       </c>
       <c r="P199" t="s">
@@ -29992,7 +30893,7 @@
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.530719722222223</v>
       </c>
       <c r="B200">
@@ -30029,15 +30930,15 @@
         <v>0</v>
       </c>
       <c r="M200">
+        <f t="shared" si="15"/>
+        <v>15.299999999999997</v>
+      </c>
+      <c r="N200">
         <f t="shared" si="16"/>
-        <v>15.299999999999997</v>
-      </c>
-      <c r="N200">
+        <v>10082.591</v>
+      </c>
+      <c r="O200">
         <f t="shared" si="17"/>
-        <v>10082.591</v>
-      </c>
-      <c r="O200">
-        <f t="shared" si="18"/>
         <v>1.131147540983606</v>
       </c>
       <c r="P200" t="s">
@@ -30046,7 +30947,7 @@
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.547513333333335</v>
       </c>
       <c r="B201">
@@ -30083,15 +30984,15 @@
         <v>0</v>
       </c>
       <c r="M201">
+        <f t="shared" si="15"/>
+        <v>15.299999999999997</v>
+      </c>
+      <c r="N201">
         <f t="shared" si="16"/>
-        <v>15.299999999999997</v>
-      </c>
-      <c r="N201">
+        <v>10143.048000000003</v>
+      </c>
+      <c r="O201">
         <f t="shared" si="17"/>
-        <v>10143.048000000003</v>
-      </c>
-      <c r="O201">
-        <f t="shared" si="18"/>
         <v>1.1475409836065582</v>
       </c>
       <c r="P201" t="s">
@@ -30100,7 +31001,7 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.564306944444443</v>
       </c>
       <c r="B202">
@@ -30137,15 +31038,15 @@
         <v>0</v>
       </c>
       <c r="M202">
+        <f t="shared" si="15"/>
+        <v>15.399999999999991</v>
+      </c>
+      <c r="N202">
         <f t="shared" si="16"/>
-        <v>15.399999999999991</v>
-      </c>
-      <c r="N202">
+        <v>10203.504999999992</v>
+      </c>
+      <c r="O202">
         <f t="shared" si="17"/>
-        <v>10203.504999999992</v>
-      </c>
-      <c r="O202">
-        <f t="shared" si="18"/>
         <v>1.1475409836065582</v>
       </c>
       <c r="P202" t="s">
@@ -30154,7 +31055,7 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.581103055555555</v>
       </c>
       <c r="B203">
@@ -30191,15 +31092,15 @@
         <v>0</v>
       </c>
       <c r="M203">
+        <f t="shared" si="15"/>
+        <v>15.5</v>
+      </c>
+      <c r="N203">
         <f t="shared" si="16"/>
-        <v>15.5</v>
-      </c>
-      <c r="N203">
+        <v>10263.970999999998</v>
+      </c>
+      <c r="O203">
         <f t="shared" si="17"/>
-        <v>10263.970999999998</v>
-      </c>
-      <c r="O203">
-        <f t="shared" si="18"/>
         <v>1.1475409836065582</v>
       </c>
       <c r="P203" t="s">
@@ -30208,7 +31109,7 @@
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.597896944444443</v>
       </c>
       <c r="B204">
@@ -30245,15 +31146,15 @@
         <v>0</v>
       </c>
       <c r="M204">
+        <f t="shared" si="15"/>
+        <v>15.400000000000006</v>
+      </c>
+      <c r="N204">
         <f t="shared" si="16"/>
-        <v>15.400000000000006</v>
-      </c>
-      <c r="N204">
+        <v>10324.428999999993</v>
+      </c>
+      <c r="O204">
         <f t="shared" si="17"/>
-        <v>10324.428999999993</v>
-      </c>
-      <c r="O204">
-        <f t="shared" si="18"/>
         <v>1.1639344262295082</v>
       </c>
       <c r="P204" t="s">
@@ -30262,7 +31163,7 @@
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.614690833333334</v>
       </c>
       <c r="B205">
@@ -30299,15 +31200,15 @@
         <v>0</v>
       </c>
       <c r="M205">
+        <f t="shared" si="15"/>
+        <v>14.900000000000006</v>
+      </c>
+      <c r="N205">
         <f t="shared" si="16"/>
-        <v>14.900000000000006</v>
-      </c>
-      <c r="N205">
+        <v>10384.887000000002</v>
+      </c>
+      <c r="O205">
         <f t="shared" si="17"/>
-        <v>10384.887000000002</v>
-      </c>
-      <c r="O205">
-        <f t="shared" si="18"/>
         <v>1.2622950819672121</v>
       </c>
       <c r="P205" t="s">
@@ -30316,7 +31217,7 @@
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.631484999999998</v>
       </c>
       <c r="B206">
@@ -30353,15 +31254,15 @@
         <v>0</v>
       </c>
       <c r="M206">
+        <f t="shared" si="15"/>
+        <v>14.400000000000006</v>
+      </c>
+      <c r="N206">
         <f t="shared" si="16"/>
-        <v>14.400000000000006</v>
-      </c>
-      <c r="N206">
+        <v>10445.34599999999</v>
+      </c>
+      <c r="O206">
         <f t="shared" si="17"/>
-        <v>10445.34599999999</v>
-      </c>
-      <c r="O206">
-        <f t="shared" si="18"/>
         <v>1.3442622950819663</v>
       </c>
       <c r="P206" t="s">
@@ -30370,7 +31271,7 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.648278888888889</v>
       </c>
       <c r="B207">
@@ -30407,15 +31308,15 @@
         <v>0</v>
       </c>
       <c r="M207">
+        <f t="shared" si="15"/>
+        <v>12.099999999999994</v>
+      </c>
+      <c r="N207">
         <f t="shared" si="16"/>
-        <v>12.099999999999994</v>
-      </c>
-      <c r="N207">
+        <v>10505.803999999998</v>
+      </c>
+      <c r="O207">
         <f t="shared" si="17"/>
-        <v>10505.803999999998</v>
-      </c>
-      <c r="O207">
-        <f t="shared" si="18"/>
         <v>1.7377049180327868</v>
       </c>
       <c r="P207" t="s">
@@ -30424,7 +31325,7 @@
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.665223333333333</v>
       </c>
       <c r="B208">
@@ -30461,15 +31362,15 @@
         <v>0</v>
       </c>
       <c r="M208">
+        <f t="shared" si="15"/>
+        <v>12.299999999999997</v>
+      </c>
+      <c r="N208">
         <f t="shared" si="16"/>
-        <v>12.299999999999997</v>
-      </c>
-      <c r="N208">
+        <v>10566.803999999998</v>
+      </c>
+      <c r="O208">
         <f t="shared" si="17"/>
-        <v>10566.803999999998</v>
-      </c>
-      <c r="O208">
-        <f t="shared" si="18"/>
         <v>1.7213114754098369</v>
       </c>
       <c r="P208" t="s">
@@ -30478,7 +31379,7 @@
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.682016944444445</v>
       </c>
       <c r="B209">
@@ -30515,15 +31416,15 @@
         <v>0</v>
       </c>
       <c r="M209">
+        <f t="shared" si="15"/>
+        <v>12.200000000000003</v>
+      </c>
+      <c r="N209">
         <f t="shared" si="16"/>
-        <v>12.200000000000003</v>
-      </c>
-      <c r="N209">
+        <v>10627.261000000002</v>
+      </c>
+      <c r="O209">
         <f t="shared" si="17"/>
-        <v>10627.261000000002</v>
-      </c>
-      <c r="O209">
-        <f t="shared" si="18"/>
         <v>1.7377049180327868</v>
       </c>
       <c r="P209" t="s">
@@ -30532,7 +31433,7 @@
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.698810555555553</v>
       </c>
       <c r="B210">
@@ -30569,15 +31470,15 @@
         <v>0</v>
       </c>
       <c r="M210">
+        <f t="shared" si="15"/>
+        <v>12.5</v>
+      </c>
+      <c r="N210">
         <f t="shared" si="16"/>
-        <v>12.5</v>
-      </c>
-      <c r="N210">
+        <v>10687.717999999992</v>
+      </c>
+      <c r="O210">
         <f t="shared" si="17"/>
-        <v>10687.717999999992</v>
-      </c>
-      <c r="O210">
-        <f t="shared" si="18"/>
         <v>1.7213114754098369</v>
       </c>
       <c r="P210" t="s">
@@ -30586,7 +31487,7 @@
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.715604444444445</v>
       </c>
       <c r="B211">
@@ -30623,15 +31524,15 @@
         <v>0</v>
       </c>
       <c r="M211">
+        <f t="shared" si="15"/>
+        <v>12.5</v>
+      </c>
+      <c r="N211">
         <f t="shared" si="16"/>
-        <v>12.5</v>
-      </c>
-      <c r="N211">
+        <v>10748.175999999999</v>
+      </c>
+      <c r="O211">
         <f t="shared" si="17"/>
-        <v>10748.175999999999</v>
-      </c>
-      <c r="O211">
-        <f t="shared" si="18"/>
         <v>1.7213114754098369</v>
       </c>
       <c r="P211" t="s">
@@ -30640,7 +31541,7 @@
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.732398055555556</v>
       </c>
       <c r="B212">
@@ -30677,15 +31578,15 @@
         <v>0</v>
       </c>
       <c r="M212">
+        <f t="shared" si="15"/>
+        <v>12.5</v>
+      </c>
+      <c r="N212">
         <f t="shared" si="16"/>
-        <v>12.5</v>
-      </c>
-      <c r="N212">
+        <v>10808.633000000002</v>
+      </c>
+      <c r="O212">
         <f t="shared" si="17"/>
-        <v>10808.633000000002</v>
-      </c>
-      <c r="O212">
-        <f t="shared" si="18"/>
         <v>1.7213114754098369</v>
       </c>
       <c r="P212" t="s">
@@ -30694,7 +31595,7 @@
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.74919361111111</v>
       </c>
       <c r="B213">
@@ -30731,15 +31632,15 @@
         <v>0</v>
       </c>
       <c r="M213">
+        <f t="shared" si="15"/>
+        <v>12.599999999999994</v>
+      </c>
+      <c r="N213">
         <f t="shared" si="16"/>
-        <v>12.599999999999994</v>
-      </c>
-      <c r="N213">
+        <v>10869.096999999994</v>
+      </c>
+      <c r="O213">
         <f t="shared" si="17"/>
-        <v>10869.096999999994</v>
-      </c>
-      <c r="O213">
-        <f t="shared" si="18"/>
         <v>1.7213114754098369</v>
       </c>
       <c r="P213" t="s">
@@ -30748,7 +31649,7 @@
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.765987222222222</v>
       </c>
       <c r="B214">
@@ -30785,15 +31686,15 @@
         <v>0</v>
       </c>
       <c r="M214">
+        <f t="shared" si="15"/>
+        <v>12.599999999999994</v>
+      </c>
+      <c r="N214">
         <f t="shared" si="16"/>
-        <v>12.599999999999994</v>
-      </c>
-      <c r="N214">
+        <v>10929.553999999998</v>
+      </c>
+      <c r="O214">
         <f t="shared" si="17"/>
-        <v>10929.553999999998</v>
-      </c>
-      <c r="O214">
-        <f t="shared" si="18"/>
         <v>1.7213114754098369</v>
       </c>
       <c r="P214">
@@ -30802,7 +31703,7 @@
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.78278111111111</v>
       </c>
       <c r="B215">
@@ -30839,15 +31740,15 @@
         <v>0</v>
       </c>
       <c r="M215">
+        <f t="shared" si="15"/>
+        <v>12.699999999999989</v>
+      </c>
+      <c r="N215">
         <f t="shared" si="16"/>
-        <v>12.699999999999989</v>
-      </c>
-      <c r="N215">
+        <v>10990.011999999993</v>
+      </c>
+      <c r="O215">
         <f t="shared" si="17"/>
-        <v>10990.011999999993</v>
-      </c>
-      <c r="O215">
-        <f t="shared" si="18"/>
         <v>1.7213114754098369</v>
       </c>
       <c r="P215" t="s">
@@ -30856,7 +31757,7 @@
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.799576388888887</v>
       </c>
       <c r="B216">
@@ -30893,15 +31794,15 @@
         <v>0</v>
       </c>
       <c r="M216">
+        <f t="shared" si="15"/>
+        <v>12.599999999999994</v>
+      </c>
+      <c r="N216">
         <f t="shared" si="16"/>
-        <v>12.599999999999994</v>
-      </c>
-      <c r="N216">
+        <v>11050.474999999993</v>
+      </c>
+      <c r="O216">
         <f t="shared" si="17"/>
-        <v>11050.474999999993</v>
-      </c>
-      <c r="O216">
-        <f t="shared" si="18"/>
         <v>1.7213114754098369</v>
       </c>
       <c r="P216" t="s">
@@ -30910,7 +31811,7 @@
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.816369999999999</v>
       </c>
       <c r="B217">
@@ -30947,15 +31848,15 @@
         <v>0</v>
       </c>
       <c r="M217">
+        <f t="shared" si="15"/>
+        <v>16.5</v>
+      </c>
+      <c r="N217">
         <f t="shared" si="16"/>
-        <v>16.5</v>
-      </c>
-      <c r="N217">
+        <v>11110.931999999995</v>
+      </c>
+      <c r="O217">
         <f t="shared" si="17"/>
-        <v>11110.931999999995</v>
-      </c>
-      <c r="O217">
-        <f t="shared" si="18"/>
         <v>1.0983606557377039</v>
       </c>
       <c r="P217" t="s">
@@ -30964,7 +31865,7 @@
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.83316388888889</v>
       </c>
       <c r="B218">
@@ -31001,15 +31902,15 @@
         <v>0</v>
       </c>
       <c r="M218">
+        <f t="shared" si="15"/>
+        <v>16.700000000000003</v>
+      </c>
+      <c r="N218">
         <f t="shared" si="16"/>
-        <v>16.700000000000003</v>
-      </c>
-      <c r="N218">
+        <v>11171.390000000003</v>
+      </c>
+      <c r="O218">
         <f t="shared" si="17"/>
-        <v>11171.390000000003</v>
-      </c>
-      <c r="O218">
-        <f t="shared" si="18"/>
         <v>1.0819672131147542</v>
       </c>
       <c r="P218" t="s">
@@ -31018,7 +31919,7 @@
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.849959999999999</v>
       </c>
       <c r="B219">
@@ -31055,15 +31956,15 @@
         <v>0</v>
       </c>
       <c r="M219">
+        <f t="shared" si="15"/>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="N219">
         <f t="shared" si="16"/>
-        <v>16.799999999999997</v>
-      </c>
-      <c r="N219">
+        <v>11231.855999999996</v>
+      </c>
+      <c r="O219">
         <f t="shared" si="17"/>
-        <v>11231.855999999996</v>
-      </c>
-      <c r="O219">
-        <f t="shared" si="18"/>
         <v>1.0655737704918042</v>
       </c>
       <c r="P219" t="s">
@@ -31072,7 +31973,7 @@
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.866753611111111</v>
       </c>
       <c r="B220">
@@ -31109,15 +32010,15 @@
         <v>0</v>
       </c>
       <c r="M220">
+        <f t="shared" si="15"/>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="N220">
         <f t="shared" si="16"/>
-        <v>16.799999999999997</v>
-      </c>
-      <c r="N220">
+        <v>11292.312999999998</v>
+      </c>
+      <c r="O220">
         <f t="shared" si="17"/>
-        <v>11292.312999999998</v>
-      </c>
-      <c r="O220">
-        <f t="shared" si="18"/>
         <v>1.0491803278688521</v>
       </c>
       <c r="P220" t="s">
@@ -31126,7 +32027,7 @@
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.883547777777778</v>
       </c>
       <c r="B221">
@@ -31163,15 +32064,15 @@
         <v>0</v>
       </c>
       <c r="M221">
+        <f t="shared" si="15"/>
+        <v>16.600000000000009</v>
+      </c>
+      <c r="N221">
         <f t="shared" si="16"/>
-        <v>16.600000000000009</v>
-      </c>
-      <c r="N221">
+        <v>11352.772000000001</v>
+      </c>
+      <c r="O221">
         <f t="shared" si="17"/>
-        <v>11352.772000000001</v>
-      </c>
-      <c r="O221">
-        <f t="shared" si="18"/>
         <v>1.0983606557377039</v>
       </c>
       <c r="P221" t="s">
@@ -31180,7 +32081,7 @@
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.900344444444443</v>
       </c>
       <c r="B222">
@@ -31217,15 +32118,15 @@
         <v>0</v>
       </c>
       <c r="M222">
+        <f t="shared" si="15"/>
+        <v>16.5</v>
+      </c>
+      <c r="N222">
         <f t="shared" si="16"/>
-        <v>16.5</v>
-      </c>
-      <c r="N222">
+        <v>11413.239999999993</v>
+      </c>
+      <c r="O222">
         <f t="shared" si="17"/>
-        <v>11413.239999999993</v>
-      </c>
-      <c r="O222">
-        <f t="shared" si="18"/>
         <v>1.0983606557377039</v>
       </c>
       <c r="P222" t="s">
@@ -31234,7 +32135,7 @@
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.917138333333334</v>
       </c>
       <c r="B223">
@@ -31271,15 +32172,15 @@
         <v>0</v>
       </c>
       <c r="M223">
+        <f t="shared" si="15"/>
+        <v>16.900000000000006</v>
+      </c>
+      <c r="N223">
         <f t="shared" si="16"/>
-        <v>16.900000000000006</v>
-      </c>
-      <c r="N223">
+        <v>11473.698</v>
+      </c>
+      <c r="O223">
         <f t="shared" si="17"/>
-        <v>11473.698</v>
-      </c>
-      <c r="O223">
-        <f t="shared" si="18"/>
         <v>1.0163934426229499</v>
       </c>
       <c r="P223" t="s">
@@ -31288,7 +32189,7 @@
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.933932222222221</v>
       </c>
       <c r="B224">
@@ -31325,15 +32226,15 @@
         <v>0</v>
       </c>
       <c r="M224">
+        <f t="shared" si="15"/>
+        <v>16.899999999999991</v>
+      </c>
+      <c r="N224">
         <f t="shared" si="16"/>
-        <v>16.899999999999991</v>
-      </c>
-      <c r="N224">
+        <v>11534.155999999995</v>
+      </c>
+      <c r="O224">
         <f t="shared" si="17"/>
-        <v>11534.155999999995</v>
-      </c>
-      <c r="O224">
-        <f t="shared" si="18"/>
         <v>1.0327868852459021</v>
       </c>
       <c r="P224" t="s">
@@ -31342,7 +32243,7 @@
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17.950726666666664</v>
       </c>
       <c r="B225">
@@ -31379,15 +32280,15 @@
         <v>0</v>
       </c>
       <c r="M225">
+        <f t="shared" si="15"/>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="N225">
         <f t="shared" si="16"/>
-        <v>16.799999999999997</v>
-      </c>
-      <c r="N225">
+        <v>11594.615999999991</v>
+      </c>
+      <c r="O225">
         <f t="shared" si="17"/>
-        <v>11594.615999999991</v>
-      </c>
-      <c r="O225">
-        <f t="shared" si="18"/>
         <v>1.0327868852459021</v>
       </c>
       <c r="P225" t="s">
